--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2810BEC-1987-4C28-A69D-2534E9409F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74398314-8C98-455B-8386-EB5B3FEA582E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22230" yWindow="-3690" windowWidth="21180" windowHeight="14715" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="363">
   <si>
     <t>작업일자</t>
   </si>
@@ -245,10 +245,6 @@
   </si>
   <si>
     <t>할인가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※dis_rate / dis_price : 정확한 값으로 할인 되는 경우와 %로 할인되는 경우를 구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1682,10 +1678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">room_thumb(객실사진) : 최대 20장까지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품예약번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1941,6 +1933,89 @@
   </si>
   <si>
     <t>lemo_product_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※room_thumb(객실사진) : 최대 20장까지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+  </si>
+  <si>
+    <t>res_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 비고 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:신용·체크카드, 2:간편 계좌이체, 3: 휴대폰결제, 4:네이버페이, 5:카카오페이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_checkIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크아웃 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_checkOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_checkIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_checkOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2892,7 +2967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3085,11 +3160,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3136,14 +3298,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3167,31 +3344,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3200,6 +3383,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3211,125 +3403,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3338,6 +3413,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3557,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3576,414 +3654,414 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="G3" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="95">
         <v>44982</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="G5" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="97"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="111"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133" t="s">
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+    </row>
+    <row r="9" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-    </row>
-    <row r="9" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="137" t="s">
+      <c r="B11" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137" t="s">
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="90" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+    </row>
+    <row r="14" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="90" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+    </row>
+    <row r="15" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-    </row>
-    <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-    </row>
-    <row r="14" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="134" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-    </row>
-    <row r="15" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="134" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="135"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="134" t="s">
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+    </row>
+    <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137" t="s">
-        <v>337</v>
-      </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="134" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137" t="s">
-        <v>342</v>
-      </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="134" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137" t="s">
-        <v>340</v>
-      </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="134"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="134"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="134"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="134"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="134"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="92"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
     </row>
     <row r="28" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="87"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="86"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="90"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="124"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
@@ -5043,7 +5121,7 @@
   <dimension ref="B1:H986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5061,12 +5139,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5093,16 +5171,16 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
-        <v>255</v>
+      <c r="B4" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -5110,39 +5188,39 @@
         <v>36</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
-        <v>244</v>
+      <c r="B6" s="69" t="s">
+        <v>243</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="115"/>
+        <v>103</v>
+      </c>
+      <c r="E6" s="72"/>
       <c r="F6" s="13" t="s">
         <v>47</v>
       </c>
@@ -5150,17 +5228,17 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="72" t="s">
         <v>289</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>291</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>47</v>
@@ -5169,17 +5247,17 @@
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="112" t="s">
-        <v>288</v>
+      <c r="B8" s="69" t="s">
+        <v>286</v>
       </c>
       <c r="C8" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="72" t="s">
         <v>217</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="115" t="s">
-        <v>218</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>47</v>
@@ -5188,16 +5266,16 @@
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="112" t="s">
-        <v>245</v>
+      <c r="B9" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="115"/>
+        <v>207</v>
+      </c>
+      <c r="E9" s="72"/>
       <c r="F9" s="13" t="s">
         <v>47</v>
       </c>
@@ -5205,16 +5283,16 @@
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
-        <v>246</v>
+      <c r="B10" s="64" t="s">
+        <v>245</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="128"/>
+        <v>171</v>
+      </c>
+      <c r="E10" s="81"/>
       <c r="F10" s="13" t="s">
         <v>47</v>
       </c>
@@ -5222,8 +5300,8 @@
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
-        <v>315</v>
+      <c r="B11" s="64" t="s">
+        <v>313</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>25</v>
@@ -5231,7 +5309,7 @@
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="128"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="13" t="s">
         <v>47</v>
       </c>
@@ -5239,8 +5317,8 @@
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106" t="s">
-        <v>316</v>
+      <c r="B12" s="64" t="s">
+        <v>314</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>26</v>
@@ -5248,7 +5326,7 @@
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="128"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="13" t="s">
         <v>47</v>
       </c>
@@ -5256,16 +5334,16 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106" t="s">
-        <v>317</v>
+      <c r="B13" s="64" t="s">
+        <v>315</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E13" s="128"/>
+        <v>318</v>
+      </c>
+      <c r="E13" s="81"/>
       <c r="F13" s="13" t="s">
         <v>47</v>
       </c>
@@ -5273,16 +5351,16 @@
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
-        <v>318</v>
+      <c r="B14" s="64" t="s">
+        <v>316</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="128"/>
+        <v>317</v>
+      </c>
+      <c r="E14" s="81"/>
       <c r="F14" s="13" t="s">
         <v>47</v>
       </c>
@@ -5290,16 +5368,16 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="128"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="13" t="s">
         <v>47</v>
       </c>
@@ -5307,16 +5385,16 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="112" t="s">
-        <v>247</v>
+      <c r="B16" s="69" t="s">
+        <v>246</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="115"/>
+        <v>74</v>
+      </c>
+      <c r="E16" s="72"/>
       <c r="F16" s="13" t="s">
         <v>47</v>
       </c>
@@ -5324,17 +5402,17 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="144" t="s">
-        <v>248</v>
+      <c r="B17" s="83" t="s">
+        <v>247</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="145" t="s">
-        <v>213</v>
+        <v>74</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>212</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>47</v>
@@ -5343,16 +5421,16 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="112" t="s">
-        <v>249</v>
+      <c r="B18" s="69" t="s">
+        <v>248</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="115"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="13" t="s">
         <v>48</v>
       </c>
@@ -5360,17 +5438,17 @@
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="112" t="s">
-        <v>276</v>
+      <c r="B19" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="C19" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>215</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="115" t="s">
-        <v>216</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>47</v>
@@ -5379,17 +5457,17 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="112" t="s">
-        <v>250</v>
+      <c r="B20" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="115" t="s">
-        <v>222</v>
+      <c r="E20" s="72" t="s">
+        <v>221</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -5398,16 +5476,16 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="112" t="s">
-        <v>251</v>
+      <c r="B21" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="13">
         <v>0</v>
       </c>
@@ -5415,8 +5493,8 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="110" t="s">
-        <v>286</v>
+      <c r="B22" s="68" t="s">
+        <v>284</v>
       </c>
       <c r="C22" s="63" t="s">
         <v>44</v>
@@ -5424,8 +5502,8 @@
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="116" t="s">
-        <v>287</v>
+      <c r="E22" s="73" t="s">
+        <v>285</v>
       </c>
       <c r="F22" s="19">
         <v>0</v>
@@ -5444,19 +5522,19 @@
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26" s="27"/>
     </row>
@@ -5468,7 +5546,7 @@
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H28" s="27"/>
     </row>
@@ -5477,15 +5555,15 @@
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="102"/>
+      <c r="B30" s="136" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="138"/>
     </row>
     <row r="31" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
@@ -6468,10 +6546,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F07DFE-3208-4026-BAF1-6BC9C853BDEE}">
-  <dimension ref="B1:H982"/>
+  <dimension ref="B1:H981"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6489,12 +6567,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6521,16 +6599,16 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
-        <v>258</v>
+      <c r="B4" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -6538,40 +6616,40 @@
         <v>36</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
-        <v>255</v>
+      <c r="B5" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>260</v>
-      </c>
       <c r="D6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>263</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>264</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>47</v>
@@ -6580,16 +6658,16 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>261</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>262</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="13" t="s">
         <v>47</v>
       </c>
@@ -6597,16 +6675,16 @@
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>265</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>266</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="13">
         <v>1</v>
       </c>
@@ -6614,16 +6692,16 @@
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>267</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>268</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="13">
         <v>1</v>
       </c>
@@ -6631,16 +6709,16 @@
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="58" t="s">
-        <v>269</v>
+      <c r="B10" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="13">
         <v>0</v>
       </c>
@@ -6648,16 +6726,16 @@
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>270</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>271</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="13">
         <v>0</v>
       </c>
@@ -6665,16 +6743,16 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>273</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="33"/>
+        <v>74</v>
+      </c>
+      <c r="E12" s="72"/>
       <c r="F12" s="13" t="s">
         <v>47</v>
       </c>
@@ -6682,17 +6760,17 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>275</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>216</v>
+        <v>74</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>215</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>47</v>
@@ -6701,84 +6779,95 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="58"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>360</v>
+      </c>
       <c r="E14" s="33"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>360</v>
+      </c>
       <c r="E15" s="33"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="14"/>
+      <c r="F15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="42"/>
       <c r="G16" s="35"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="42"/>
       <c r="G17" s="35"/>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+    </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
+      <c r="B21" s="140" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+      <c r="B22" s="44"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
+      <c r="B23" s="26"/>
       <c r="H23" s="27"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6794,18 +6883,15 @@
       <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-    </row>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7759,12 +7845,11 @@
     <row r="979" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="980" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="981" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7777,7 +7862,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7795,13 +7880,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7829,10 +7914,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>22</v>
@@ -7845,15 +7930,15 @@
         <v>41</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>22</v>
@@ -7863,32 +7948,32 @@
         <v>47</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="45" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>18</v>
@@ -7897,7 +7982,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>48</v>
@@ -7907,16 +7992,16 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>48</v>
@@ -7926,16 +8011,16 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>47</v>
@@ -7945,10 +8030,10 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>38</v>
@@ -7962,13 +8047,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="45" t="s">
@@ -7979,13 +8064,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="45" t="s">
@@ -7996,7 +8081,7 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>33</v>
@@ -8013,7 +8098,7 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>34</v>
@@ -8030,16 +8115,16 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>48</v>
@@ -8067,26 +8152,26 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="B20" s="140" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -9106,10 +9191,10 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
@@ -9118,13 +9203,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9151,191 +9236,260 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
-        <v>202</v>
+      <c r="B4" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>187</v>
+        <v>278</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>186</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="39" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
-        <v>258</v>
+      <c r="B5" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="45"/>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
-        <v>282</v>
+      <c r="B6" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="34"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
-        <v>284</v>
+      <c r="B7" s="69" t="s">
+        <v>280</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="13"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="G9" s="34"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="45"/>
+      <c r="B10" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="34"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="G11" s="34"/>
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="72"/>
+      <c r="F14" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="G14" s="34"/>
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="45"/>
       <c r="G15" s="34"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="3"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="19"/>
       <c r="G16" s="35"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="4"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="24"/>
       <c r="G17" s="36"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="B20" s="140" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="138"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
@@ -10329,10 +10483,11 @@
     <row r="997" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10345,7 +10500,7 @@
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10363,11 +10518,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10397,16 +10552,16 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="128"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -10416,34 +10571,34 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107" t="s">
-        <v>122</v>
+      <c r="B5" s="65" t="s">
+        <v>121</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="128"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="107" t="s">
-        <v>138</v>
+      <c r="B6" s="65" t="s">
+        <v>137</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="128" t="s">
-        <v>114</v>
+      <c r="E6" s="81" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>47</v>
@@ -10452,8 +10607,8 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
-        <v>123</v>
+      <c r="B7" s="64" t="s">
+        <v>122</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>15</v>
@@ -10461,7 +10616,7 @@
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="128"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="13" t="s">
         <v>47</v>
       </c>
@@ -10469,16 +10624,16 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="107" t="s">
-        <v>137</v>
+      <c r="B8" s="65" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="128"/>
+        <v>103</v>
+      </c>
+      <c r="E8" s="81"/>
       <c r="F8" s="13" t="s">
         <v>48</v>
       </c>
@@ -10486,27 +10641,27 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="107" t="s">
-        <v>124</v>
+      <c r="B9" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C9" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="128" t="s">
-        <v>117</v>
+      <c r="E9" s="81" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
-        <v>125</v>
+      <c r="B10" s="64" t="s">
+        <v>124</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>18</v>
@@ -10514,25 +10669,25 @@
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="128"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
-        <v>126</v>
+      <c r="B11" s="64" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="128" t="s">
-        <v>108</v>
+      <c r="E11" s="81" t="s">
+        <v>107</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>47</v>
@@ -10541,8 +10696,8 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106" t="s">
-        <v>127</v>
+      <c r="B12" s="64" t="s">
+        <v>126</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>23</v>
@@ -10550,8 +10705,8 @@
       <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="128" t="s">
-        <v>115</v>
+      <c r="E12" s="81" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -10560,8 +10715,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106" t="s">
-        <v>128</v>
+      <c r="B13" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>21</v>
@@ -10569,7 +10724,7 @@
       <c r="D13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="128" t="s">
+      <c r="E13" s="81" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="13">
@@ -10579,8 +10734,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
-        <v>129</v>
+      <c r="B14" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>49</v>
@@ -10588,7 +10743,7 @@
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="128"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="13" t="s">
         <v>47</v>
       </c>
@@ -10596,16 +10751,16 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
-        <v>130</v>
+      <c r="B15" s="64" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="128"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="13" t="s">
         <v>47</v>
       </c>
@@ -10613,16 +10768,16 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106" t="s">
-        <v>131</v>
+      <c r="B16" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="128"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="13" t="s">
         <v>47</v>
       </c>
@@ -10630,16 +10785,16 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106" t="s">
-        <v>132</v>
+      <c r="B17" s="64" t="s">
+        <v>131</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="128"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="13" t="s">
         <v>48</v>
       </c>
@@ -10647,17 +10802,17 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="106" t="s">
-        <v>133</v>
+      <c r="B18" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="128" t="s">
-        <v>167</v>
+      <c r="E18" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -10666,17 +10821,17 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="106" t="s">
-        <v>134</v>
+      <c r="B19" s="64" t="s">
+        <v>133</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="128" t="s">
-        <v>167</v>
+      <c r="E19" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -10685,17 +10840,17 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="108" t="s">
-        <v>135</v>
+      <c r="B20" s="66" t="s">
+        <v>134</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="128" t="s">
-        <v>167</v>
+      <c r="E20" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -10704,17 +10859,17 @@
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="106" t="s">
-        <v>184</v>
+      <c r="B21" s="64" t="s">
+        <v>183</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="128" t="s">
-        <v>167</v>
+      <c r="E21" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F21" s="13">
         <v>0</v>
@@ -10723,17 +10878,17 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="106" t="s">
-        <v>183</v>
+      <c r="B22" s="64" t="s">
+        <v>182</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="128" t="s">
-        <v>167</v>
+      <c r="E22" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F22" s="13">
         <v>0</v>
@@ -10742,17 +10897,17 @@
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="106" t="s">
-        <v>182</v>
+      <c r="B23" s="64" t="s">
+        <v>181</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="128" t="s">
-        <v>167</v>
+      <c r="E23" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F23" s="13">
         <v>0</v>
@@ -10761,17 +10916,17 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="109" t="s">
-        <v>300</v>
+      <c r="B24" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="129" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="F24" s="52" t="s">
         <v>48</v>
@@ -10783,15 +10938,15 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
@@ -17520,7 +17675,7 @@
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17537,11 +17692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17571,11 +17726,11 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>45</v>
@@ -17585,13 +17740,13 @@
         <v>47</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
-        <v>141</v>
+      <c r="B5" s="64" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>27</v>
@@ -17607,11 +17762,11 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
-        <v>142</v>
+      <c r="B6" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>14</v>
@@ -17624,14 +17779,14 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>220</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13" t="s">
@@ -17641,48 +17796,48 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
-        <v>143</v>
+      <c r="B8" s="64" t="s">
+        <v>142</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
-        <v>144</v>
+      <c r="B9" s="64" t="s">
+        <v>143</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
-        <v>145</v>
+      <c r="B10" s="64" t="s">
+        <v>144</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
@@ -17692,8 +17847,8 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
-        <v>146</v>
+      <c r="B11" s="64" t="s">
+        <v>145</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>25</v>
@@ -17709,8 +17864,8 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106" t="s">
-        <v>147</v>
+      <c r="B12" s="64" t="s">
+        <v>146</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>26</v>
@@ -17726,7 +17881,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="63"/>
       <c r="D13" s="13"/>
       <c r="E13" s="15"/>
@@ -17735,7 +17890,7 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="3"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
@@ -17744,7 +17899,7 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
@@ -17753,7 +17908,7 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
       <c r="E16" s="15"/>
@@ -17762,7 +17917,7 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="3"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
@@ -17771,7 +17926,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
@@ -17783,15 +17938,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -24538,11 +24693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24572,17 +24727,17 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
-        <v>186</v>
+      <c r="B4" s="64" t="s">
+        <v>185</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>164</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>163</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>47</v>
@@ -24593,36 +24748,36 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="128"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="107" t="s">
-        <v>181</v>
+      <c r="B6" s="65" t="s">
+        <v>180</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="128" t="s">
-        <v>163</v>
+      <c r="E6" s="81" t="s">
+        <v>162</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>47</v>
@@ -24631,28 +24786,28 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="56"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="128"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="13"/>
       <c r="G7" s="34"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="56"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="128"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="13"/>
       <c r="G8" s="35"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="49"/>
       <c r="D9" s="50"/>
-      <c r="E9" s="129"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="52"/>
       <c r="G9" s="53"/>
       <c r="H9" s="54"/>
@@ -24661,15 +24816,15 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
@@ -31414,12 +31569,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -31449,16 +31604,16 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
-        <v>159</v>
+      <c r="B4" s="69" t="s">
+        <v>158</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -31468,17 +31623,17 @@
       <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>153</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="114" t="s">
-        <v>154</v>
+      <c r="E5" s="71" t="s">
+        <v>153</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>47</v>
@@ -31487,16 +31642,16 @@
       <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
-        <v>157</v>
+      <c r="B6" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="115"/>
+        <v>73</v>
+      </c>
+      <c r="E6" s="72"/>
       <c r="F6" s="45" t="s">
         <v>47</v>
       </c>
@@ -31504,16 +31659,16 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112" t="s">
-        <v>158</v>
+      <c r="B7" s="69" t="s">
+        <v>157</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="115"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="45" t="s">
         <v>47</v>
       </c>
@@ -31521,82 +31676,76 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="112"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="56"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="115"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="45"/>
       <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="112"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="56"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="45"/>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="2"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="116"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="17"/>
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
+      <c r="B12" s="79"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="102"/>
-    </row>
-    <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
@@ -32623,12 +32772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -32658,8 +32807,8 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
-        <v>194</v>
+      <c r="B4" s="69" t="s">
+        <v>193</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>30</v>
@@ -32667,7 +32816,7 @@
       <c r="D4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -32675,40 +32824,40 @@
         <v>40</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="45" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
-        <v>202</v>
+      <c r="B6" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="115" t="s">
         <v>187</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>186</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>48</v>
@@ -32717,23 +32866,23 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
-        <v>180</v>
+      <c r="B7" s="64" t="s">
+        <v>179</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="115"/>
+        <v>73</v>
+      </c>
+      <c r="E7" s="72"/>
       <c r="F7" s="45"/>
       <c r="G7" s="34"/>
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
-        <v>178</v>
+      <c r="B8" s="64" t="s">
+        <v>177</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>43</v>
@@ -32741,22 +32890,22 @@
       <c r="D8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="45"/>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
-        <v>179</v>
+      <c r="B9" s="64" t="s">
+        <v>178</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="115"/>
+        <v>84</v>
+      </c>
+      <c r="E9" s="72"/>
       <c r="F9" s="45" t="s">
         <v>47</v>
       </c>
@@ -32764,33 +32913,33 @@
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="115" t="s">
-        <v>200</v>
+      <c r="E10" s="72" t="s">
+        <v>199</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="34"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
-        <v>177</v>
+      <c r="B11" s="64" t="s">
+        <v>176</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="115"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="45" t="s">
         <v>47</v>
       </c>
@@ -32798,90 +32947,90 @@
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="45"/>
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="37"/>
       <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="37"/>
       <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="3"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="17"/>
       <c r="G15" s="35"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="113"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="4"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="117"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="23"/>
       <c r="G16" s="36"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="B19" s="140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="104"/>
+      <c r="B20" s="142" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="105"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="144"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
@@ -33888,7 +34037,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33906,12 +34055,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -33941,17 +34090,17 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
-        <v>294</v>
+      <c r="B4" s="69" t="s">
+        <v>292</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="114" t="s">
-        <v>296</v>
+      <c r="E4" s="71" t="s">
+        <v>294</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>37</v>
@@ -33960,12 +34109,12 @@
         <v>36</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
-        <v>86</v>
+      <c r="B5" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>59</v>
@@ -33973,48 +34122,48 @@
       <c r="D5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="114" t="s">
-        <v>297</v>
+      <c r="E5" s="71" t="s">
+        <v>295</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="128"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
-        <v>301</v>
+      <c r="B7" s="64" t="s">
+        <v>299</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="128" t="s">
-        <v>302</v>
+      <c r="E7" s="81" t="s">
+        <v>300</v>
       </c>
       <c r="F7" s="45">
         <v>0</v>
@@ -34023,31 +34172,31 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
-        <v>303</v>
+      <c r="B8" s="64" t="s">
+        <v>301</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="112" t="s">
-        <v>304</v>
+      <c r="B9" s="69" t="s">
+        <v>302</v>
       </c>
       <c r="C9" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
@@ -34057,8 +34206,8 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
-        <v>298</v>
+      <c r="B10" s="64" t="s">
+        <v>296</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>31</v>
@@ -34066,7 +34215,7 @@
       <c r="D10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="45" t="s">
         <v>47</v>
       </c>
@@ -34074,88 +34223,88 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="45"/>
       <c r="G11" s="34"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="45"/>
       <c r="G12" s="34"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="13"/>
       <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="112"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="56"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="13"/>
       <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="45"/>
       <c r="G15" s="34"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="37"/>
       <c r="G16" s="35"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="113"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="4"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="117"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="23"/>
       <c r="G17" s="36"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -35187,12 +35336,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -35222,8 +35371,8 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
-        <v>86</v>
+      <c r="B4" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>59</v>
@@ -35231,7 +35380,7 @@
       <c r="D4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -35239,62 +35388,62 @@
         <v>36</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="115" t="s">
-        <v>305</v>
+      <c r="E5" s="72" t="s">
+        <v>303</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
-        <v>126</v>
+      <c r="B6" s="64" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="115" t="s">
-        <v>305</v>
+      <c r="E6" s="72" t="s">
+        <v>303</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="115"/>
+        <v>94</v>
+      </c>
+      <c r="E7" s="72"/>
       <c r="F7" s="45" t="s">
         <v>47</v>
       </c>
@@ -35302,17 +35451,17 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>328</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="115" t="s">
-        <v>312</v>
+      <c r="E8" s="72" t="s">
+        <v>310</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>47</v>
@@ -35321,17 +35470,17 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
-        <v>189</v>
+      <c r="B9" s="64" t="s">
+        <v>188</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="115" t="s">
-        <v>312</v>
+      <c r="E9" s="72" t="s">
+        <v>310</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>47</v>
@@ -35340,8 +35489,8 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
-        <v>92</v>
+      <c r="B10" s="64" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>44</v>
@@ -35349,7 +35498,7 @@
       <c r="D10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="45" t="s">
         <v>47</v>
       </c>
@@ -35357,8 +35506,8 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
-        <v>93</v>
+      <c r="B11" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>60</v>
@@ -35366,7 +35515,7 @@
       <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="115"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="45" t="s">
         <v>47</v>
       </c>
@@ -35374,17 +35523,17 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106" t="s">
-        <v>306</v>
+      <c r="B12" s="64" t="s">
+        <v>304</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="115" t="s">
-        <v>62</v>
+      <c r="E12" s="72" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>47</v>
@@ -35393,16 +35542,16 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106" t="s">
-        <v>94</v>
+      <c r="B13" s="64" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="45" t="s">
         <v>47</v>
       </c>
@@ -35410,16 +35559,16 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
-        <v>76</v>
+      <c r="B14" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="115"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="45" t="s">
         <v>47</v>
       </c>
@@ -35427,16 +35576,16 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
-        <v>81</v>
+      <c r="B15" s="64" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="115"/>
+        <v>84</v>
+      </c>
+      <c r="E15" s="72"/>
       <c r="F15" s="13" t="s">
         <v>48</v>
       </c>
@@ -35444,16 +35593,16 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="112" t="s">
-        <v>82</v>
+      <c r="B16" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="115"/>
+        <v>84</v>
+      </c>
+      <c r="E16" s="72"/>
       <c r="F16" s="13" t="s">
         <v>48</v>
       </c>
@@ -35461,16 +35610,16 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106" t="s">
-        <v>311</v>
+      <c r="B17" s="64" t="s">
+        <v>309</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="115"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="45" t="s">
         <v>47</v>
       </c>
@@ -35481,81 +35630,81 @@
       <c r="B18" s="22"/>
       <c r="C18" s="4"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="117"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="23"/>
       <c r="G18" s="36"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="B21" s="140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="140" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="145"/>
+    </row>
+    <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="136" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138"/>
+    </row>
+    <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="136" t="s">
         <v>329</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
-    </row>
-    <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="100" t="s">
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="138"/>
+    </row>
+    <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="136" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="102"/>
-    </row>
-    <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="100" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="102"/>
-    </row>
-    <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="102"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="138"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="146" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C26" s="147"/>
       <c r="D26" s="147"/>
@@ -36560,7 +36709,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36578,12 +36727,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -36613,16 +36762,16 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
-        <v>96</v>
+      <c r="B4" s="69" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="45" t="s">
         <v>37</v>
       </c>
@@ -36630,55 +36779,55 @@
         <v>36</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
-        <v>86</v>
+      <c r="B5" s="69" t="s">
+        <v>292</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="115"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112" t="s">
-        <v>202</v>
+      <c r="B7" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="115" t="s">
         <v>187</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>186</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>48</v>
@@ -36687,16 +36836,16 @@
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
-        <v>88</v>
+      <c r="B8" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="115"/>
+        <v>90</v>
+      </c>
+      <c r="E8" s="72"/>
       <c r="F8" s="45" t="s">
         <v>47</v>
       </c>
@@ -36704,16 +36853,16 @@
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="45" t="s">
         <v>47</v>
       </c>
@@ -36721,99 +36870,97 @@
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="45"/>
       <c r="G10" s="34"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="37"/>
       <c r="G11" s="34"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="37"/>
       <c r="G12" s="34"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="106"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="12"/>
       <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="112"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="2"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="12"/>
       <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="37"/>
       <c r="G15" s="34"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="37"/>
       <c r="G16" s="35"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="113"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="4"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="117"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="23"/>
       <c r="G17" s="36"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="B19" s="105" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="996" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="996" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="587">
   <si>
     <t>작업일자</t>
   </si>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이블명 : lemo_member_businessInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대표이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,14 +451,6 @@
   </si>
   <si>
     <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bis_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bis_bizRegNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1256,1694 +1244,1710 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>개업일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~10점으로 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_cs(고객센터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cate : notice(공지사항) / event(이벤트) / faq(자주묻는질문) / qna(1:1문의) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_cate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  qna카테고리일 경우 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보에 있는 이메일과 별개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보에 있는 전화번호와 별개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_room(숙소 객실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accNo 컬럼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ALTER TABLE `km_accuct` auto_increment = 1,000,000</t>
+  </si>
+  <si>
+    <t>숙소 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실 재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101호/103호/205호...형식으로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_defNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_maxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_addPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실 이용안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">acc_thumbs(숙소사진) : 최대 20장까지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품예약번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>res_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">할인금액 = 포인트 + 쿠폰 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소의 전체 객실에 예약 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo__product_coupon(상품 쿠폰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_member_coupon(회원 쿠폰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발급 쿠폰아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원에게 발급된 쿠폰 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자나 판매자가 등록한 쿠폰 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcp_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 사용 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcp_isUsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:사용 / 0:미사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcp_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcp_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 등록한 판매자 및 관리자 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_disType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인방법구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOW()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_daysAvailable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_longtitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_lattitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌표(경도, 위도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용가능한 일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 사용 내역 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※cp_group (관리자일 경우에만 적용) : ALL(전체적용) / acc_type(숙소 유형) / acc_province(전국8도 및 광역시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※cp_type (관리자일 경우에만 적용) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - ALL(전체적용) 일 경우 NULL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - acc_type(숙소 유형) : 모텔 / 호텔·리조트 / 펜션 / 게스트하우스 / 캠핑·글램핑 / 해외여행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - acc_province(전국8도 및 광역시) : 전국 8도 및 광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 쿠폰 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 쿠폰 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_accommodation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원 추가가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※room_thumb(객실사진) : 최대 20장까지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+  </si>
+  <si>
+    <t>1:신용·체크카드, 2:간편 계좌이체, 3: 휴대폰결제, 4:네이버페이, 5:카카오페이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크아웃 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_checkIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_checkOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rero_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약된 객실 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_ratePolicy(요금 정책)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금 정책 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비수기_주중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_offSeason_weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_offSeason_weekday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수기_주말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_peakSeason_weekday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_peakSeason_weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_review(상품 리뷰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실이용상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rero_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:사용전 1:사용중 2:사용종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rero_checkIn_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rero_checkOut_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:예약취소 / 1:예약완료 / 2: 숙박완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 고객이 체크인한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 고객이 체크아웃한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반:닉네임 / 비즈니스:상호명 / 관리자:관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 아이피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_wdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 회원의 특이사항에대해 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_ratePolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금 정책 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_reserved_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_reserved_room(예약 객실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revi_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※revi_thumb(객실사진) : 최대 5장까지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOW()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_diary_like(좋아요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_pno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 댓글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_pick(나의 찜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_IssuedCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발급한 갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발급수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_limitedIssuance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 발급 가능한 쿠폰 제한 개수 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 발급한 쿠폰수 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 권한 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:일반 / 2:엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 인증 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK. FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_member_userId(회원 아이디)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user(일반) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_member_userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 객실 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 예약 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_qna(판매자 문의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 문의 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_diary_article(여행일기 게시글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행일기 게시글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_diary_article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_diary_comment(여행일기 댓글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행일기 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_diary_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_diary_spot(여행장소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행장소 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_longtitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_lattitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_xy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_diary_spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_diary_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:홈회원 2 sns회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_hp_certi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_isEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_isLocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_isPassNonExpired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_isNoticeEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_isLocationEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_isPrivacySelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_serviceCate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_member_social(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_hp_certi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_wdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_isEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_isLocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_isPassNonExpired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_isNoticeEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_isLocationEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_isPrivacySelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soci_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bis_ceo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bis_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bis_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bis_addrDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poi_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poi_maximum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_reservation(숙소 예약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_disPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_checkIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_checkOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_accommodation(숙소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_addrDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_xy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_thumbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_checkIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_checkOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 편의시설/서비스 카테고리 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_serviceCate(편의시설/서비스 카테고리 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_serviceRegInfo(편의시설/서비스 등록정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설/서비스 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srg_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_serviceRegInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 편의시설/서비스 등록정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_accommodationType(숙소 타입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accType_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모텔/호텔/펜션/게스트하우스/캠핑·글램핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소유형 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_accommodationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_product_province(도, 광역시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도, 광역시 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설/서비스 카테고리 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※userId_id(회원아이디) : 홈 회원 : 이메일 아이디 / 소셜 회원 :  naver_xxxxxxxxxxxxx로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 파일명 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyMMddhhmmssSSS + 1~9 랜덤한 숫자(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설/서비스 카테고리 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도, 광역시 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accType_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소유형 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId_nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이벤트 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_eventStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_eventEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termsType_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관구분 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termsType_type : terms(이용약관) / over14yearsOldAgree(만14세 이상 확인) / privacyRequire(개인정보 수집 및 이용(필수))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_eventViewImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_eventbannerImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 배너사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트상세보기사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_member_termsType(약관구분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_member_terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_member_termsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관구분 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_eventState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 활성화 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관구분 한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관구분 영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termsType_type_ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termsType_type_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_member_user(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">USER(일반) / BUSINESS(비지니스) / ADMIN(관리자) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : lemo_member_businessInfo(비즈니스 정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bis_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bis_openDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개업일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~10점으로 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_cs(고객센터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cate : notice(공지사항) / event(이벤트) / faq(자주묻는질문) / qna(1:1문의) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_cate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  qna카테고리일 경우 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보에 있는 이메일과 별개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보에 있는 전화번호와 별개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_room(숙소 객실)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accNo 컬럼</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - ALTER TABLE `km_accuct` auto_increment = 1,000,000</t>
-  </si>
-  <si>
-    <t>숙소 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL, UNIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실 재고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101호/103호/205호...형식으로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_defNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_maxNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_addPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실 이용안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">acc_thumbs(숙소사진) : 최대 20장까지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품예약번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>res_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">할인금액 = 포인트 + 쿠폰 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소의 전체 객실에 예약 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo__product_coupon(상품 쿠폰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_member_coupon(회원 쿠폰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발급 쿠폰아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원에게 발급된 쿠폰 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자나 판매자가 등록한 쿠폰 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 사용 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_isUsed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:사용 / 0:미사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 등록한 판매자 및 관리자 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_disType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인방법구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOW()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_daysAvailable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_longtitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_lattitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌표(경도, 위도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용가능한 일수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 사용 내역 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※cp_group (관리자일 경우에만 적용) : ALL(전체적용) / acc_type(숙소 유형) / acc_province(전국8도 및 광역시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">※cp_type (관리자일 경우에만 적용) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - ALL(전체적용) 일 경우 NULL </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - acc_type(숙소 유형) : 모텔 / 호텔·리조트 / 펜션 / 게스트하우스 / 캠핑·글램핑 / 해외여행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - acc_province(전국8도 및 광역시) : 전국 8도 및 광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 쿠폰 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 쿠폰 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_coupon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_accommodation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인원 추가가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">※room_thumb(객실사진) : 최대 20장까지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약자 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약자 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방법</t>
-  </si>
-  <si>
-    <t>1:신용·체크카드, 2:간편 계좌이체, 3: 휴대폰결제, 4:네이버페이, 5:카카오페이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크인 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크아웃 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_checkIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크인 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크인 아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_checkOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rero_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크인 아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약된 객실 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_ratePolicy(요금 정책)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요금 정책 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비수기_주중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_offSeason_weekend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_offSeason_weekday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성수기_주말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_peakSeason_weekday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_peakSeason_weekend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_review(상품 리뷰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK, FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실이용상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rero_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:사용전 1:사용중 2:사용종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rero_checkIn_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rero_checkOut_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:예약취소 / 1:예약완료 / 2: 숙박완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 고객이 체크인한 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 고객이 체크아웃한 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반:닉네임 / 비즈니스:상호명 / 관리자:관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">USER(일반) / BUSINESS(비지니스) / ADMIN(관리자) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 아이피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_wdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 회원의 특이사항에대해 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_ratePolicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요금 정책 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_reserved_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_reservation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_reserved_room(예약 객실)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>revi_thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">※revi_thumb(객실사진) : 최대 5장까지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOW()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_udate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_diary_like(좋아요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_pno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모 댓글 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_udate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_pick(나의 찜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_IssuedCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발급한 갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발급수 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_limitedIssuance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 발급 가능한 쿠폰 제한 개수 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재까지 발급한 쿠폰수 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_udate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 권한 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:일반 / 2:엘리트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 인증 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK. FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_member_userId(회원 아이디)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user(일반) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_member_userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 아이디 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 객실 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객실 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소 예약 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_qna(판매자 문의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 문의 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_qna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_diary_article(여행일기 게시글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행일기 게시글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_diary_article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_diary_comment(여행일기 댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행일기 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_diary_like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_pick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 찜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_diary_spot(여행장소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행장소 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_longtitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_lattitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_xy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terms_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_diary_spot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_diary_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:홈회원 2 sns회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_member_user(회원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_photo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_hp_certi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_udate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_isEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_isLocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_isPassNonExpired</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_isNoticeEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_isLocationEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_isPrivacySelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_serviceCate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_member_social(회원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_photo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_hp_certi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_udate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_wdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_isEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_isLocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_isPassNonExpired</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_isNoticeEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_isLocationEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_isPrivacySelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soci_memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bis_ceo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bis_tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bis_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bis_addrDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poi_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poi_maximum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_reservation(숙소 예약)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_disPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_checkIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_checkOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_accommodation(숙소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_addrDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_xy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_thumbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_checkIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_checkOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소 편의시설/서비스 카테고리 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_serviceCate(편의시설/서비스 카테고리 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_serviceRegInfo(편의시설/서비스 등록정보)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편의시설/서비스 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srg_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_serviceRegInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소 편의시설/서비스 등록정보 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_accommodationType(숙소 타입)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accType_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모텔/호텔/펜션/게스트하우스/캠핑·글램핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소유형 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_accommodationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_product_province(도, 광역시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도, 광역시 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_product_province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편의시설/서비스 카테고리 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※userId_id(회원아이디) : 홈 회원 : 이메일 아이디 / 소셜 회원 :  naver_xxxxxxxxxxxxx로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 파일명 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyMMddhhmmssSSS + 1~9 랜덤한 숫자(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arti_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편의시설/서비스 카테고리 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도, 광역시 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accType_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소유형 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId_nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이벤트 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_eventStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_eventEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>termsType_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관구분 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>termsType_type : terms(이용약관) / over14yearsOldAgree(만14세 이상 확인) / privacyRequire(개인정보 수집 및 이용(필수))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_eventViewImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_eventbannerImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 배너사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트상세보기사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : lemo_member_termsType(약관구분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_member_terms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemo_member_termsType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관구분 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_eventState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 활성화 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관구분 한글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관구분 영어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>termsType_type_ko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>termsType_type_en</t>
+    <t>bis_bizRegNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4195,13 +4199,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4210,59 +4211,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4275,6 +4237,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4321,8 +4298,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4614,581 +4618,581 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="106" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="108"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="134">
         <v>44982</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="108"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="109"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115" t="s">
+      <c r="C7" s="133"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115" t="s">
+      <c r="F7" s="133"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="116" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+    </row>
+    <row r="10" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B10" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+    </row>
+    <row r="11" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B11" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
-    </row>
-    <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="2:9" s="92" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B12" s="111" t="s">
-        <v>576</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="95" t="s">
+      <c r="B12" s="94" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="111" t="s">
-        <v>577</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="95" t="s">
-        <v>578</v>
-      </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="B13" s="94" t="s">
+        <v>569</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="97" t="s">
+        <v>570</v>
+      </c>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+    </row>
+    <row r="15" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B15" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+    </row>
+    <row r="16" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B16" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+    </row>
+    <row r="17" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B17" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="95" t="s">
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+    </row>
+    <row r="18" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B18" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="111" t="s">
-        <v>532</v>
-      </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="95" t="s">
-        <v>531</v>
-      </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
+      <c r="B19" s="94" t="s">
+        <v>524</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="111" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="95" t="s">
-        <v>535</v>
-      </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
+      <c r="B20" s="94" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="111" t="s">
-        <v>455</v>
-      </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="95" t="s">
-        <v>520</v>
-      </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="94"/>
+      <c r="B21" s="94" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97" t="s">
+        <v>512</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="111" t="s">
-        <v>525</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="95" t="s">
-        <v>526</v>
-      </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
+      <c r="B22" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
+        <v>518</v>
+      </c>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="111" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
+      <c r="B23" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="111" t="s">
-        <v>408</v>
-      </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="95" t="s">
-        <v>409</v>
-      </c>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="B24" s="94" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="111" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
+      <c r="B25" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+    </row>
+    <row r="27" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B27" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+    </row>
+    <row r="28" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B28" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+    </row>
+    <row r="29" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B29" s="94" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+    </row>
+    <row r="30" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B30" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97" t="s">
         <v>410</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-    </row>
-    <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="111" t="s">
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+    </row>
+    <row r="31" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B31" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="F31" s="95"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+    </row>
+    <row r="32" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B32" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="97" t="s">
         <v>413</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="95" t="s">
-        <v>412</v>
-      </c>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
-    </row>
-    <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="95" t="s">
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
+    </row>
+    <row r="33" spans="2:16" ht="21.75" customHeight="1">
+      <c r="B33" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-    </row>
-    <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="111" t="s">
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="97" t="s">
+        <v>415</v>
+      </c>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+    </row>
+    <row r="34" spans="2:16" ht="21.75" customHeight="1">
+      <c r="B34" s="94" t="s">
+        <v>416</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="97" t="s">
         <v>417</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="94"/>
-    </row>
-    <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="111" t="s">
-        <v>435</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
-    </row>
-    <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="111" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="95" t="s">
-        <v>419</v>
-      </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-    </row>
-    <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="111" t="s">
-        <v>420</v>
-      </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="94"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-    </row>
-    <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="111" t="s">
-        <v>422</v>
-      </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="94"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="134"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="133"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="124"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="112"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="122"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="124"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="115"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="125"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="124"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="115"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="125"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="124"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="115"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="125"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="124"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="115"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="125"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="124"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="115"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="125"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="124"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="115"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="128"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="119"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6162,53 +6166,39 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I46"/>
@@ -6233,39 +6223,53 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6297,7 +6301,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -6353,10 +6357,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -6372,7 +6376,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>93</v>
@@ -6381,7 +6385,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>45</v>
@@ -6410,16 +6414,16 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>45</v>
@@ -6429,16 +6433,16 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>45</v>
@@ -6486,10 +6490,10 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>38</v>
@@ -6542,7 +6546,7 @@
         <v>76</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>80</v>
@@ -6559,7 +6563,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>80</v>
@@ -6573,10 +6577,10 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>38</v>
@@ -6590,38 +6594,38 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="61" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="64" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="86" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="25"/>
@@ -6631,16 +6635,16 @@
       <c r="B21" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="109"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="137" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="138"/>
       <c r="D22" s="138"/>
@@ -6651,7 +6655,7 @@
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="137" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C23" s="138"/>
       <c r="D23" s="138"/>
@@ -6662,7 +6666,7 @@
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="144" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C24" s="145"/>
       <c r="D24" s="145"/>
@@ -6673,7 +6677,7 @@
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
       <c r="B25" s="144" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
@@ -6684,7 +6688,7 @@
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1">
       <c r="B26" s="144" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C26" s="145"/>
       <c r="D26" s="145"/>
@@ -6695,7 +6699,7 @@
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
       <c r="B27" s="151" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C27" s="152"/>
       <c r="D27" s="152"/>
@@ -7719,7 +7723,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -7757,7 +7761,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
@@ -7775,10 +7779,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>43</v>
@@ -7792,10 +7796,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -7809,16 +7813,16 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E7" s="69" t="s">
         <v>538</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>546</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>45</v>
@@ -7934,15 +7938,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="B19" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="137"/>
@@ -8984,7 +8988,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -9016,10 +9020,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -9037,17 +9041,17 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="69"/>
       <c r="F5" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>58</v>
@@ -9056,13 +9060,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="13" t="s">
@@ -9073,16 +9077,16 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>45</v>
@@ -9094,16 +9098,16 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>45</v>
@@ -9115,13 +9119,13 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="13" t="s">
@@ -9132,13 +9136,13 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="13" t="s">
@@ -9149,13 +9153,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E11" s="78"/>
       <c r="F11" s="13" t="s">
@@ -9166,13 +9170,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="13" t="s">
@@ -9183,13 +9187,13 @@
     </row>
     <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="13" t="s">
@@ -9200,13 +9204,13 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="13" t="s">
@@ -9217,13 +9221,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="13" t="s">
@@ -9234,13 +9238,13 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="66" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="13" t="s">
@@ -9251,10 +9255,10 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="66" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>61</v>
@@ -9268,16 +9272,16 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="66" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>45</v>
@@ -9287,16 +9291,16 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="66" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -9306,10 +9310,10 @@
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="66" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>43</v>
@@ -9323,7 +9327,7 @@
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>42</v>
@@ -9332,7 +9336,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F21" s="19">
         <v>0</v>
@@ -9342,13 +9346,13 @@
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="66" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="13" t="s">
@@ -9359,13 +9363,13 @@
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="66" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="13" t="s">
@@ -9394,19 +9398,19 @@
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="112"/>
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
       <c r="B28" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H28" s="27"/>
     </row>
@@ -9418,7 +9422,7 @@
     </row>
     <row r="30" spans="2:8" ht="21.75" customHeight="1">
       <c r="B30" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H30" s="27"/>
     </row>
@@ -9428,7 +9432,7 @@
     </row>
     <row r="32" spans="2:8" ht="21.75" customHeight="1">
       <c r="B32" s="144" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C32" s="145"/>
       <c r="D32" s="145"/>
@@ -10440,7 +10444,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -10472,10 +10476,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -10493,16 +10497,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>45</v>
@@ -10611,15 +10615,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -11649,7 +11653,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -11681,10 +11685,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -11702,16 +11706,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>45</v>
@@ -11820,15 +11824,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -12858,7 +12862,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -12890,10 +12894,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -12911,10 +12915,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>94</v>
@@ -13027,15 +13031,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14065,7 +14069,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -14097,10 +14101,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -14118,10 +14122,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>43</v>
@@ -14137,10 +14141,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>43</v>
@@ -14237,15 +14241,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -15275,7 +15279,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -15307,10 +15311,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -15328,17 +15332,17 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="69"/>
       <c r="F5" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>58</v>
@@ -15347,68 +15351,68 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="48"/>
@@ -15433,15 +15437,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -16471,7 +16475,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -16503,10 +16507,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -16524,10 +16528,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>43</v>
@@ -16543,16 +16547,16 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>192</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>196</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>45</v>
@@ -16562,10 +16566,10 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>43</v>
@@ -16579,10 +16583,10 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>38</v>
@@ -16596,10 +16600,10 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>38</v>
@@ -16613,10 +16617,10 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>43</v>
@@ -16630,10 +16634,10 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>43</v>
@@ -16647,10 +16651,10 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>70</v>
@@ -16664,16 +16668,16 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="66" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>45</v>
@@ -16683,13 +16687,13 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="66" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="13" t="s">
@@ -16700,13 +16704,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="66" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="13" t="s">
@@ -16744,19 +16748,19 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C21" s="138"/>
       <c r="D21" s="138"/>
@@ -17784,7 +17788,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -17816,10 +17820,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -17829,7 +17833,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>59</v>
@@ -17837,31 +17841,31 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>538</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>546</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>43</v>
@@ -17877,16 +17881,16 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="69" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>314</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>45</v>
@@ -17896,16 +17900,16 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>315</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>45</v>
@@ -17915,16 +17919,16 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F9" s="13">
         <v>0</v>
@@ -17979,15 +17983,15 @@
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="137"/>
@@ -18998,7 +19002,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19013,7 +19017,7 @@
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="B1" s="136" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C1" s="136"/>
       <c r="D1" s="136"/>
@@ -19035,7 +19039,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
@@ -19049,16 +19053,16 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>45</v>
@@ -19072,26 +19076,26 @@
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="62" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>93</v>
@@ -19100,7 +19104,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>45</v>
@@ -19194,19 +19198,19 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="137" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C18" s="138"/>
       <c r="D18" s="138"/>
@@ -19271,7 +19275,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -19304,16 +19308,16 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>538</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>546</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>45</v>
@@ -19327,10 +19331,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>43</v>
@@ -19340,16 +19344,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>43</v>
@@ -19365,17 +19369,17 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>58</v>
@@ -19384,10 +19388,10 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>43</v>
@@ -19401,7 +19405,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>82</v>
@@ -19410,7 +19414,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F9" s="13">
         <v>0</v>
@@ -19420,13 +19424,13 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="45" t="s">
@@ -19437,13 +19441,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="45" t="s">
@@ -19454,16 +19458,16 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>45</v>
@@ -19473,13 +19477,13 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="45" t="s">
@@ -19490,13 +19494,13 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="45" t="s">
@@ -19507,13 +19511,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
@@ -19524,16 +19528,16 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>45</v>
@@ -19543,10 +19547,10 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="64" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>70</v>
@@ -19560,19 +19564,19 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C20" s="138"/>
       <c r="D20" s="138"/>
@@ -20618,7 +20622,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -20651,7 +20655,7 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>68</v>
@@ -20672,10 +20676,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -20691,7 +20695,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>17</v>
@@ -20700,7 +20704,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>46</v>
@@ -20710,16 +20714,16 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>46</v>
@@ -20729,7 +20733,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>67</v>
@@ -20738,7 +20742,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>45</v>
@@ -20748,7 +20752,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>63</v>
@@ -20765,7 +20769,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>62</v>
@@ -20782,7 +20786,7 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>60</v>
@@ -20799,7 +20803,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
@@ -20816,7 +20820,7 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>33</v>
@@ -20833,16 +20837,16 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>46</v>
@@ -20852,13 +20856,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="45" t="s">
@@ -20869,13 +20873,13 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="45" t="s">
@@ -20886,10 +20890,10 @@
     </row>
     <row r="17" spans="2:8" s="92" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>80</v>
@@ -20903,10 +20907,10 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="61" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>80</v>
@@ -20920,16 +20924,16 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="64" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E19" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="52">
         <v>1</v>
@@ -20939,19 +20943,19 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" s="138"/>
       <c r="D22" s="138"/>
@@ -21991,7 +21995,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -22024,7 +22028,7 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>68</v>
@@ -22045,10 +22049,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>43</v>
@@ -22058,16 +22062,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -22083,7 +22087,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>62</v>
@@ -22100,7 +22104,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>60</v>
@@ -22117,7 +22121,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
@@ -22134,7 +22138,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>33</v>
@@ -22151,10 +22155,10 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>28</v>
@@ -22168,10 +22172,10 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>61</v>
@@ -22230,15 +22234,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="137"/>
@@ -23280,7 +23284,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -23313,10 +23317,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
@@ -23334,22 +23338,22 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>538</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>546</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H5" s="59" t="s">
         <v>59</v>
@@ -23357,16 +23361,16 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -23376,7 +23380,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>62</v>
@@ -23393,7 +23397,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>60</v>
@@ -23410,10 +23414,10 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>61</v>
@@ -23427,7 +23431,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
@@ -23444,7 +23448,7 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>33</v>
@@ -23461,19 +23465,19 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
@@ -23507,19 +23511,19 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="137" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C18" s="138"/>
       <c r="D18" s="138"/>
@@ -24559,7 +24563,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -24592,10 +24596,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
@@ -24613,65 +24617,65 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="39" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>21</v>
@@ -24685,10 +24689,10 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>21</v>
@@ -24702,10 +24706,10 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>21</v>
@@ -24719,41 +24723,41 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="45" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="45" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
@@ -24770,10 +24774,10 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="66" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>80</v>
@@ -24787,10 +24791,10 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="66" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>80</v>
@@ -24813,15 +24817,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="137"/>
@@ -25863,7 +25867,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -25896,10 +25900,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
@@ -25917,32 +25921,32 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="45" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="13" t="s">
@@ -25953,13 +25957,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="13" t="s">
@@ -25970,13 +25974,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="13" t="s">
@@ -25987,7 +25991,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>60</v>
@@ -26004,16 +26008,16 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>45</v>
@@ -26023,16 +26027,16 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>45</v>
@@ -26042,10 +26046,10 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>15</v>
@@ -26122,15 +26126,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="137"/>
@@ -27172,7 +27176,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -27205,10 +27209,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
@@ -27226,17 +27230,17 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>58</v>
@@ -27245,10 +27249,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>43</v>
@@ -27264,10 +27268,10 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>21</v>
@@ -27281,58 +27285,58 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="45" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="45" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="45" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
@@ -27412,15 +27416,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="137"/>
@@ -28462,7 +28466,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -28495,29 +28499,29 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="45" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -28527,7 +28531,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H5" s="48"/>
     </row>
@@ -28569,15 +28573,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="137"/>
@@ -29619,7 +29623,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -29652,29 +29656,29 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -29684,7 +29688,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H5" s="48"/>
     </row>
@@ -29789,15 +29793,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="137"/>
@@ -30826,7 +30830,7 @@
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30841,7 +30845,7 @@
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="B1" s="136" t="s">
-        <v>439</v>
+        <v>578</v>
       </c>
       <c r="C1" s="136"/>
       <c r="D1" s="136"/>
@@ -30863,7 +30867,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
@@ -30877,62 +30881,62 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>441</v>
+        <v>579</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>17</v>
@@ -30942,23 +30946,23 @@
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="13">
         <v>0</v>
@@ -30968,32 +30972,32 @@
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>104</v>
+        <v>580</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>327</v>
+        <v>582</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E10" s="78" t="s">
         <v>99</v>
@@ -31006,7 +31010,7 @@
     </row>
     <row r="11" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>20</v>
@@ -31015,7 +31019,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F11" s="13">
         <v>0</v>
@@ -31025,75 +31029,75 @@
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="13" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>98</v>
@@ -31102,7 +31106,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
@@ -31112,7 +31116,7 @@
     </row>
     <row r="17" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>97</v>
@@ -31121,7 +31125,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -31131,7 +31135,7 @@
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="63" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C18" s="56" t="s">
         <v>100</v>
@@ -31140,7 +31144,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -31150,16 +31154,16 @@
     </row>
     <row r="19" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="61" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
@@ -31169,16 +31173,16 @@
     </row>
     <row r="20" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B20" s="61" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -31188,16 +31192,16 @@
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B21" s="61" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="13">
         <v>0</v>
@@ -31207,19 +31211,19 @@
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="64" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="54"/>
@@ -31229,15 +31233,15 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
     </row>
     <row r="25" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B25" s="26"/>
@@ -31296,7 +31300,7 @@
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="B1" s="136" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C1" s="136"/>
       <c r="D1" s="136"/>
@@ -31318,7 +31322,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
@@ -31332,20 +31336,20 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>59</v>
@@ -31353,16 +31357,16 @@
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>45</v>
@@ -31372,41 +31376,41 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>17</v>
@@ -31416,61 +31420,61 @@
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -31480,7 +31484,7 @@
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>20</v>
@@ -31489,7 +31493,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
@@ -31499,30 +31503,30 @@
     </row>
     <row r="13" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="13" t="s">
@@ -31533,41 +31537,41 @@
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E16" s="78"/>
       <c r="F16" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>98</v>
@@ -31576,7 +31580,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -31586,7 +31590,7 @@
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="61" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C18" s="56" t="s">
         <v>97</v>
@@ -31595,7 +31599,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -31605,7 +31609,7 @@
     </row>
     <row r="19" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="63" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>100</v>
@@ -31614,7 +31618,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -31624,16 +31628,16 @@
     </row>
     <row r="20" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B20" s="61" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -31643,16 +31647,16 @@
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B21" s="61" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="13">
         <v>0</v>
@@ -31662,16 +31666,16 @@
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" s="13">
         <v>0</v>
@@ -31681,19 +31685,19 @@
     </row>
     <row r="23" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B23" s="64" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="54"/>
@@ -31703,15 +31707,15 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="121"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="112"/>
     </row>
     <row r="26" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B26" s="26"/>
@@ -31754,7 +31758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H985"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -31773,7 +31777,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="136" t="s">
-        <v>101</v>
+        <v>583</v>
       </c>
       <c r="C1" s="136"/>
       <c r="D1" s="136"/>
@@ -31807,20 +31811,20 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>59</v>
@@ -31828,13 +31832,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>107</v>
+        <v>584</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="13" t="s">
@@ -31845,13 +31849,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="13" t="s">
@@ -31862,13 +31866,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>162</v>
+        <v>585</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13" t="s">
@@ -31879,47 +31883,47 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
@@ -31930,7 +31934,7 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>24</v>
@@ -31947,7 +31951,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>25</v>
@@ -32020,15 +32024,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -38774,7 +38778,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -38809,10 +38813,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
@@ -38828,10 +38832,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>43</v>
@@ -38847,7 +38851,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>62</v>
@@ -38864,7 +38868,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>60</v>
@@ -38881,13 +38885,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="45"/>
@@ -39960,8 +39964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -39978,7 +39982,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -40013,10 +40017,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
@@ -40032,16 +40036,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
@@ -40051,16 +40055,16 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>45</v>
@@ -40129,7 +40133,7 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="144" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C14" s="145"/>
       <c r="D14" s="145"/>
@@ -40140,7 +40144,7 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="144" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
@@ -41175,7 +41179,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -41210,7 +41214,7 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>29</v>
@@ -41231,10 +41235,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="82" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>69</v>
@@ -41250,16 +41254,16 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>538</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>546</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>46</v>
@@ -41271,10 +41275,10 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>69</v>
@@ -41288,7 +41292,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>41</v>
@@ -41298,17 +41302,17 @@
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="45" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>80</v>
@@ -41322,16 +41326,16 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>45</v>
@@ -41341,10 +41345,10 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>48</v>
@@ -41406,16 +41410,16 @@
       <c r="B18" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="109"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="137" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="138"/>
       <c r="D19" s="138"/>
@@ -41424,7 +41428,7 @@
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="148" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="138"/>
       <c r="D20" s="138"/>
@@ -42471,7 +42475,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -42506,16 +42510,16 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>36</v>
@@ -42538,7 +42542,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
@@ -42550,10 +42554,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -42569,16 +42573,16 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F7" s="45">
         <v>0</v>
@@ -42588,7 +42592,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>78</v>
@@ -42598,14 +42602,14 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>79</v>
@@ -42622,7 +42626,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>30</v>
@@ -42702,15 +42706,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="137"/>

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="996" firstSheet="3" activeTab="20"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="996" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="570">
   <si>
     <t>작업일자</t>
   </si>
@@ -2852,6 +2852,34 @@
   </si>
   <si>
     <t>cate : notice(공지사항) / event(이벤트) / faq(자주묻는질문) / qna(1:1문의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rero_checkIn_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rero_checkOut_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크인 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크아웃 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3832,7 +3860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4127,13 +4155,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4142,59 +4170,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4207,6 +4196,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4253,8 +4257,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4546,339 +4577,339 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="140">
         <v>44982</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="113"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120" t="s">
+      <c r="F7" s="139"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="113"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="108" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
         <v>559</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="108" t="s">
         <v>558</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="122"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="100" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="103" t="s">
         <v>123</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="102"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="100" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="101"/>
       <c r="D11" s="102"/>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="103" t="s">
         <v>108</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="102"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="100" t="s">
         <v>519</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="100" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="100" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="100" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="103" t="s">
         <v>521</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="100" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="101"/>
       <c r="D14" s="102"/>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="103" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="101"/>
       <c r="G14" s="102"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="100" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="101"/>
       <c r="D15" s="102"/>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="103" t="s">
         <v>247</v>
       </c>
       <c r="F15" s="101"/>
       <c r="G15" s="102"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="100" t="s">
         <v>249</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="102"/>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="103" t="s">
         <v>248</v>
       </c>
       <c r="F16" s="101"/>
       <c r="G16" s="102"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="100" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="102"/>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="103" t="s">
         <v>148</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="102"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="100" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="102"/>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="103" t="s">
         <v>250</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="102"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="100" t="s">
         <v>477</v>
       </c>
       <c r="C19" s="101"/>
       <c r="D19" s="102"/>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="103" t="s">
         <v>476</v>
       </c>
       <c r="F19" s="101"/>
       <c r="G19" s="102"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="100" t="s">
         <v>481</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="102"/>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="103" t="s">
         <v>480</v>
       </c>
       <c r="F20" s="101"/>
       <c r="G20" s="102"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="100" t="s">
         <v>419</v>
       </c>
       <c r="C21" s="101"/>
       <c r="D21" s="102"/>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="103" t="s">
         <v>465</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="102"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="100" t="s">
         <v>470</v>
       </c>
       <c r="C22" s="101"/>
       <c r="D22" s="102"/>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="103" t="s">
         <v>471</v>
       </c>
       <c r="F22" s="101"/>
       <c r="G22" s="102"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="100" t="s">
         <v>322</v>
       </c>
       <c r="C23" s="101"/>
       <c r="D23" s="102"/>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="103" t="s">
         <v>323</v>
       </c>
       <c r="F23" s="101"/>
       <c r="G23" s="102"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="100" t="s">
         <v>387</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="102"/>
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="103" t="s">
         <v>388</v>
       </c>
       <c r="F24" s="101"/>
       <c r="G24" s="102"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="100" t="s">
         <v>324</v>
       </c>
       <c r="C25" s="101"/>
       <c r="D25" s="102"/>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="103" t="s">
         <v>386</v>
       </c>
       <c r="F25" s="101"/>
       <c r="G25" s="102"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -4886,241 +4917,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="103" t="s">
         <v>389</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="102"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="100" t="s">
         <v>252</v>
       </c>
       <c r="C27" s="101"/>
       <c r="D27" s="102"/>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="103" t="s">
         <v>253</v>
       </c>
       <c r="F27" s="101"/>
       <c r="G27" s="102"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="100" t="s">
         <v>392</v>
       </c>
       <c r="C28" s="101"/>
       <c r="D28" s="102"/>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="103" t="s">
         <v>391</v>
       </c>
       <c r="F28" s="101"/>
       <c r="G28" s="102"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="100" t="s">
         <v>326</v>
       </c>
       <c r="C29" s="101"/>
       <c r="D29" s="102"/>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="103" t="s">
         <v>393</v>
       </c>
       <c r="F29" s="101"/>
       <c r="G29" s="102"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="100" t="s">
         <v>396</v>
       </c>
       <c r="C30" s="101"/>
       <c r="D30" s="102"/>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="103" t="s">
         <v>395</v>
       </c>
       <c r="F30" s="101"/>
       <c r="G30" s="102"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="100" t="s">
         <v>414</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="102"/>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="103" t="s">
         <v>413</v>
       </c>
       <c r="F31" s="101"/>
       <c r="G31" s="102"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="100" t="s">
         <v>415</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="100" t="s">
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="F32" s="117"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="100" t="s">
         <v>399</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="100" t="s">
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="F33" s="117"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="100" t="s">
         <v>401</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="100" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="103" t="s">
         <v>402</v>
       </c>
-      <c r="F34" s="117"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="99"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="139"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="127"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="129"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="129"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="129"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="129"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="129"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="129"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="131"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="133"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6094,53 +6125,39 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I46"/>
@@ -6165,39 +6182,53 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6210,7 +6241,7 @@
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6228,12 +6259,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -6285,7 +6316,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>381</v>
+        <v>569</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>384</v>
@@ -6560,81 +6591,81 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="115"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="150" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="152"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="150" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="152"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="150" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="159"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="29" spans="2:8" ht="16.5" customHeight="1"/>
@@ -7632,7 +7663,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7650,12 +7681,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -7724,7 +7755,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>381</v>
+        <v>569</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>384</v>
@@ -7866,24 +7897,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -8897,7 +8928,7 @@
   <dimension ref="B1:H988"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8915,12 +8946,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -8969,7 +9000,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>381</v>
+        <v>569</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>384</v>
@@ -9326,15 +9357,15 @@
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="126"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
       <c r="B28" s="26" t="s">
@@ -9359,15 +9390,15 @@
       <c r="H31" s="27"/>
     </row>
     <row r="32" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="152"/>
     </row>
     <row r="33" spans="2:8" ht="21.75" customHeight="1">
       <c r="B33" s="26"/>
@@ -10371,12 +10402,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>472</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -10543,15 +10574,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -10570,13 +10601,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -11580,12 +11611,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>478</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -11752,15 +11783,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -11779,13 +11810,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -12789,12 +12820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -12959,15 +12990,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -12986,13 +13017,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -13996,12 +14027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -14169,15 +14200,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -14196,13 +14227,13 @@
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="151"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="152"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -15206,12 +15237,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -15365,15 +15396,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -15392,13 +15423,13 @@
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="149"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="152"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -16402,12 +16433,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -16676,26 +16707,26 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="143" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="44"/>
@@ -17697,7 +17728,7 @@
   <dimension ref="B1:H977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17715,12 +17746,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -17865,20 +17896,36 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="66" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>567</v>
+      </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="34"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="66"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>567</v>
+      </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="35"/>
       <c r="H11" s="21"/>
     </row>
@@ -17911,24 +17958,24 @@
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="44"/>
@@ -18930,7 +18977,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18944,11 +18991,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>542</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -19373,26 +19420,26 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="126"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="143" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
     </row>
     <row r="30" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B30" s="55"/>
@@ -19430,7 +19477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -19449,13 +19496,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -19739,35 +19786,35 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="152"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -20777,8 +20824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20796,13 +20843,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -20851,7 +20898,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>381</v>
+        <v>569</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>384</v>
@@ -21118,26 +21165,26 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="143" t="s">
         <v>562</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -22151,7 +22198,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22169,13 +22216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -22243,7 +22290,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>381</v>
+        <v>569</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>384</v>
@@ -22409,24 +22456,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -23458,13 +23505,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -23686,26 +23733,26 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="143" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -24716,10 +24763,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H997"/>
+  <dimension ref="B1:H998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -24737,13 +24784,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -24790,89 +24837,91 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B5" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>202</v>
+    <row r="5" spans="2:8" s="98" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B5" s="61" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>384</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="39" t="s">
-        <v>298</v>
+        <v>69</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>311</v>
+        <v>336</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="G7" s="34"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="45">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="G8" s="34"/>
-      <c r="H8" s="48"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="45">
         <v>0</v>
       </c>
@@ -24881,10 +24930,10 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>21</v>
@@ -24898,78 +24947,78 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="45" t="s">
-        <v>346</v>
+      <c r="F11" s="45">
+        <v>0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>345</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="45" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>19</v>
+      <c r="B13" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>345</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="45" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="66" t="s">
-        <v>493</v>
+      <c r="B14" s="61" t="s">
+        <v>350</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>495</v>
+        <v>32</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>80</v>
@@ -24978,42 +25027,55 @@
       <c r="F15" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B16" s="66" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="19" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-    </row>
-    <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="144"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -25024,15 +25086,18 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" customHeight="1"/>
+      <c r="B23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+    </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="26" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
@@ -26006,11 +26071,12 @@
     <row r="995" ht="16.5" customHeight="1"/>
     <row r="996" ht="16.5" customHeight="1"/>
     <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -26041,13 +26107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -26301,24 +26367,24 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="144"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -27350,13 +27416,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -27591,24 +27657,24 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -28640,13 +28706,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -28748,24 +28814,24 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B12" s="142"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="144"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="26"/>
@@ -29797,13 +29863,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -29968,33 +30034,33 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="144"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="145"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="152"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -31019,11 +31085,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -31223,15 +31289,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -31289,11 +31355,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>421</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -31511,15 +31577,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -31563,7 +31629,7 @@
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -31580,11 +31646,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -31615,7 +31681,7 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>381</v>
+        <v>568</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>384</v>
@@ -31828,15 +31894,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -38581,12 +38647,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -38733,33 +38799,33 @@
       <c r="B12" s="76"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="148"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="152"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="149"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="26"/>
@@ -39785,12 +39851,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -39925,37 +39991,37 @@
       <c r="B12" s="76"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="148"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="150" t="s">
         <v>511</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="152"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="26"/>
@@ -40965,7 +41031,7 @@
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -40982,12 +41048,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -41039,7 +41105,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="82" t="s">
-        <v>381</v>
+        <v>568</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>384</v>
@@ -41211,44 +41277,44 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="154"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="155"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="155"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="156"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -42260,7 +42326,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -42278,12 +42344,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -42358,7 +42424,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>381</v>
+        <v>568</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>384</v>
@@ -42510,24 +42576,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\LeMo\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F798A0-B832-4DC5-A50F-13071669FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="8" activeTab="21"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="996" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <sheet name="좋아요" sheetId="36" r:id="rId28"/>
     <sheet name="나의 찜" sheetId="38" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="577">
   <si>
     <t>작업일자</t>
   </si>
@@ -2764,10 +2765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2923,7 +2920,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4202,10 +4199,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4214,20 +4214,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4240,21 +4279,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4301,35 +4325,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4349,35 +4373,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4644,361 +4641,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P1012"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="5"/>
+    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="138" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="140">
+      <c r="G4" s="116">
         <v>44982</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="138" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="115"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="114" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="114" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="122" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111" t="s">
-        <v>556</v>
-      </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125" t="s">
+        <v>555</v>
+      </c>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="108" t="s">
-        <v>555</v>
-      </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111" t="s">
+      <c r="B9" s="122" t="s">
+        <v>554</v>
+      </c>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="117" t="s">
         <v>516</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="101" t="s">
         <v>518</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="117" t="s">
         <v>478</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="101" t="s">
         <v>477</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="117" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="117" t="s">
         <v>467</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="101" t="s">
         <v>468</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5006,241 +5003,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="117" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103" t="s">
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="117" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103" t="s">
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="117" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103" t="s">
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="117" t="s">
         <v>411</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103" t="s">
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="101" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="117" t="s">
         <v>412</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="103" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="117" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="103" t="s">
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="117" t="s">
         <v>399</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="103" t="s">
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="101" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="100"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="100"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="131"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="139"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="127"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="122"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="130"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="122"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="130"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="122"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="130"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="122"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="123"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="134"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6214,15 +6211,77 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6247,77 +6306,15 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6326,25 +6323,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -6428,7 +6425,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>382</v>
@@ -6580,15 +6577,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -7607,30 +7604,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="164"/>
@@ -7983,12 +7980,12 @@
       <c r="B22" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="115"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="158" t="s">
@@ -9048,25 +9045,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -9144,7 +9141,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>382</v>
@@ -9286,15 +9283,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -10313,25 +10310,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:H989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -10389,7 +10386,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>382</v>
@@ -10533,7 +10530,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.15" customHeight="1">
+    <row r="13" spans="2:8" ht="22.2" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>230</v>
       </c>
@@ -10586,10 +10583,10 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>568</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>569</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>69</v>
@@ -10763,15 +10760,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -11786,25 +11783,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -11980,15 +11977,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -12995,25 +12992,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -13189,15 +13186,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14204,25 +14201,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -14358,7 +14355,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.15" customHeight="1">
+    <row r="13" spans="2:8" ht="22.2" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="56"/>
       <c r="D13" s="13"/>
@@ -14396,15 +14393,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -15411,25 +15408,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -15606,15 +15603,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -16621,25 +16618,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -16802,15 +16799,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -17817,25 +17814,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:H981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -18113,15 +18110,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="158" t="s">
@@ -19130,459 +19127,459 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="5"/>
+    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="154" t="s">
-        <v>570</v>
-      </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
+      <c r="B1" s="145" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="115" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="113"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121" t="s">
         <v>571</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="114" t="s">
+      <c r="I3" s="114"/>
+    </row>
+    <row r="4" spans="2:9" ht="42.6" customHeight="1">
+      <c r="B4" s="151">
+        <v>1</v>
+      </c>
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154" t="s">
         <v>572</v>
       </c>
-      <c r="I3" s="115"/>
-    </row>
-    <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="142">
-        <v>1</v>
-      </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145" t="s">
-        <v>573</v>
-      </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="146">
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="155">
         <v>44999</v>
       </c>
-      <c r="I4" s="147"/>
+      <c r="I4" s="156"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="142">
+      <c r="B5" s="151">
         <v>2</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="146">
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="155">
         <v>44999</v>
       </c>
-      <c r="I5" s="147"/>
-    </row>
-    <row r="6" spans="2:9" ht="44.45" customHeight="1">
-      <c r="B6" s="148">
+      <c r="I5" s="156"/>
+    </row>
+    <row r="6" spans="2:9" ht="44.4" customHeight="1">
+      <c r="B6" s="146">
         <v>3</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151" t="s">
-        <v>577</v>
-      </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="146">
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="157" t="s">
+        <v>576</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="155">
         <v>45001</v>
       </c>
-      <c r="I6" s="147"/>
+      <c r="I6" s="156"/>
     </row>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="148"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="148"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="148"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="148"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="148"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="148"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="148"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="148"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="148"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="148"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="148"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B18" s="148"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B19" s="148"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B20" s="148"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B21" s="148"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B23" s="148"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B24" s="148"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B25" s="148"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B26" s="148"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B27" s="148"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B32" s="148"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="127"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="130"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="122"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="122"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="122"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="122"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="134"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20556,11 +20553,81 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
@@ -20577,81 +20644,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20660,25 +20657,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -20852,13 +20849,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>560</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>561</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="13" t="s">
@@ -20869,13 +20866,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>562</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>563</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="13" t="s">
@@ -20913,15 +20910,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="158"/>
@@ -21928,25 +21925,25 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -22240,15 +22237,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158" t="s">
@@ -23275,25 +23272,25 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -23352,7 +23349,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>382</v>
@@ -23619,19 +23616,19 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="158" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C22" s="159"/>
       <c r="D22" s="159"/>
@@ -24648,25 +24645,25 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -24744,7 +24741,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>382</v>
@@ -24910,15 +24907,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -25937,25 +25934,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -26206,15 +26203,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="158" t="s">
@@ -27235,25 +27232,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -27312,7 +27309,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>382</v>
@@ -27531,15 +27528,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -28558,25 +28555,25 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="B1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -28821,15 +28818,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="158"/>
@@ -29848,25 +29845,25 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -29944,10 +29941,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>566</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>567</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
@@ -30147,15 +30144,15 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="158"/>
@@ -31174,25 +31171,25 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="B1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -31304,15 +31301,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="158"/>
@@ -32331,25 +32328,25 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -32524,15 +32521,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="158"/>
@@ -33557,29 +33554,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="145" t="s">
         <v>539</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -33612,7 +33609,7 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>382</v>
@@ -33652,7 +33649,7 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>313</v>
@@ -33671,7 +33668,7 @@
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>104</v>
@@ -33688,7 +33685,7 @@
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>93</v>
@@ -33707,7 +33704,7 @@
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>378</v>
@@ -33726,7 +33723,7 @@
     </row>
     <row r="10" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>22</v>
@@ -33745,7 +33742,7 @@
     </row>
     <row r="11" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>20</v>
@@ -33764,7 +33761,7 @@
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>317</v>
@@ -33781,7 +33778,7 @@
     </row>
     <row r="13" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>98</v>
@@ -33800,7 +33797,7 @@
     </row>
     <row r="14" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>97</v>
@@ -33819,7 +33816,7 @@
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>100</v>
@@ -33838,7 +33835,7 @@
     </row>
     <row r="16" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>118</v>
@@ -33857,7 +33854,7 @@
     </row>
     <row r="17" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>119</v>
@@ -33876,7 +33873,7 @@
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>121</v>
@@ -33895,7 +33892,7 @@
     </row>
     <row r="19" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="93" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>319</v>
@@ -34004,15 +34001,15 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="158" t="s">
@@ -34058,29 +34055,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="145" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34280,15 +34277,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34328,29 +34325,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="145" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34423,10 +34420,10 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>557</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>558</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
@@ -34568,15 +34565,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34616,32 +34613,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="3" width="14.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="145" t="s">
         <v>528</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -34672,7 +34669,7 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>382</v>
@@ -34885,15 +34882,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -41618,23 +41615,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -42822,23 +42819,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -44018,24 +44015,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="4" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -44096,7 +44093,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>382</v>
@@ -44271,12 +44268,12 @@
       <c r="B18" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="115"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="158" t="s">

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F798A0-B832-4DC5-A50F-13071669FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="996" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="996" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <sheet name="좋아요" sheetId="36" r:id="rId28"/>
     <sheet name="나의 찜" sheetId="38" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="580">
   <si>
     <t>작업일자</t>
   </si>
@@ -2916,11 +2915,23 @@
 2. lemo_product_reserved_room(예약 객실) &gt; room_id 컬럼 외래키 설정 안되있어서 설정함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>acc_season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:비성수기, 2:성수기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4199,13 +4210,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4214,59 +4222,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4279,6 +4248,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4325,35 +4309,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4373,8 +4357,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4641,361 +4652,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1012"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="5"/>
+    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="116">
+      <c r="G4" s="140">
         <v>44982</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="112" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="121" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121" t="s">
+      <c r="F7" s="139"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="108" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
         <v>555</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="108" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="101" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="101" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="100" t="s">
         <v>516</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="101" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="100" t="s">
         <v>517</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="101" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="103" t="s">
         <v>518</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="101" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="101" t="s">
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="101" t="s">
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="101" t="s">
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="101" t="s">
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="100" t="s">
         <v>474</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="101" t="s">
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103" t="s">
         <v>473</v>
       </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="100" t="s">
         <v>478</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="101" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="100" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="101" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="101" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103" t="s">
         <v>468</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="101" t="s">
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="101" t="s">
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5003,241 +5014,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="103" t="s">
         <v>387</v>
       </c>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="101" t="s">
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="101" t="s">
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="100" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="101" t="s">
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="100" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="101" t="s">
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="100" t="s">
         <v>411</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="101" t="s">
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="100" t="s">
         <v>412</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="101" t="s">
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="100" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="101" t="s">
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="F33" s="118"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="100" t="s">
         <v>399</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="101" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="140"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="139"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="128"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="131"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="131"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="131"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="130"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="131"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="130"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="131"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="132"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="134"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6211,53 +6222,39 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I46"/>
@@ -6282,39 +6279,53 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6323,25 +6334,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -6577,15 +6588,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -7604,25 +7615,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -7980,12 +7991,12 @@
       <c r="B22" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="115"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="158" t="s">
@@ -9045,25 +9056,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -9283,15 +9294,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -10310,25 +10321,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -10530,7 +10541,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.2" customHeight="1">
+    <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>230</v>
       </c>
@@ -10741,11 +10752,21 @@
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
       <c r="G25" s="35"/>
       <c r="H25" s="21"/>
     </row>
@@ -10760,15 +10781,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -11783,25 +11804,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -11977,15 +11998,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -12992,25 +13013,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -13186,15 +13207,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14201,25 +14222,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -14355,7 +14376,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.2" customHeight="1">
+    <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="56"/>
       <c r="D13" s="13"/>
@@ -14393,15 +14414,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -15408,25 +15429,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -15603,15 +15624,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -16618,25 +16639,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -16799,15 +16820,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -17814,25 +17835,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -18110,15 +18131,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="158" t="s">
@@ -19127,459 +19148,459 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="5"/>
+    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="154" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>570</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="114" t="s">
         <v>571</v>
       </c>
-      <c r="I3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="151">
+      <c r="B4" s="142">
         <v>1</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145" t="s">
         <v>572</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="155">
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="146">
         <v>44999</v>
       </c>
-      <c r="I4" s="156"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="151">
+      <c r="B5" s="142">
         <v>2</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="154" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145" t="s">
         <v>574</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="155">
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="146">
         <v>44999</v>
       </c>
-      <c r="I5" s="156"/>
-    </row>
-    <row r="6" spans="2:9" ht="44.4" customHeight="1">
-      <c r="B6" s="146">
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="2:9" ht="44.45" customHeight="1">
+      <c r="B6" s="148">
         <v>3</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="157" t="s">
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151" t="s">
         <v>576</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="155">
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="146">
         <v>45001</v>
       </c>
-      <c r="I6" s="156"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="146"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="146"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="100"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="146"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="146"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="146"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="146"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="146"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="146"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="146"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B18" s="146"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B19" s="146"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B20" s="146"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B23" s="146"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="100"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B24" s="146"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B25" s="146"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B26" s="146"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B27" s="146"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="139"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="127"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="128"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="130"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="131"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="121"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="131"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="130"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="131"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="131"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="131"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="132"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="134"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="125"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20553,54 +20574,38 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -20617,38 +20622,54 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20657,25 +20678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -20910,15 +20931,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="158"/>
@@ -21925,25 +21946,25 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -22237,15 +22258,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158" t="s">
@@ -23272,25 +23293,25 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -23616,15 +23637,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="158" t="s">
@@ -24645,25 +24666,25 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -24907,15 +24928,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -25934,25 +25955,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -26203,15 +26224,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="158" t="s">
@@ -27232,25 +27253,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -27528,15 +27549,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="158"/>
@@ -28555,25 +28576,25 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -28818,15 +28839,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="158"/>
@@ -29845,25 +29866,25 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -30144,15 +30165,15 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="158"/>
@@ -31171,25 +31192,25 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -31301,15 +31322,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="158"/>
@@ -32328,25 +32349,25 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -32521,15 +32542,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="158"/>
@@ -33554,29 +33575,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="154" t="s">
         <v>539</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34001,15 +34022,15 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="158" t="s">
@@ -34055,29 +34076,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="154" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34277,15 +34298,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34325,29 +34346,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="154" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34565,15 +34586,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34613,32 +34634,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="3" width="14.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="154" t="s">
         <v>528</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -34882,15 +34903,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -41615,23 +41636,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -42819,23 +42840,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -44015,24 +44036,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -44268,12 +44289,12 @@
       <c r="B18" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="158" t="s">

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="592">
   <si>
     <t>작업일자</t>
   </si>
@@ -2952,6 +2952,30 @@
   </si>
   <si>
     <t>lemo_product_room(객실) &gt; room_info 컬럼 not null -&gt; null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pQna_secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀글 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀글:1 공개글:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> lemo_product_qna(판매자 문의) &gt; pQna_secret 컬럼 추가 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4237,10 +4261,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4249,20 +4276,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4275,21 +4341,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4336,53 +4387,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4392,9 +4410,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4408,17 +4423,26 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4707,339 +4731,339 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="138" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="140">
+      <c r="G4" s="116">
         <v>44982</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="138" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="115"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="114" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="114" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="122" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125" t="s">
         <v>555</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="122" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111" t="s">
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="117" t="s">
         <v>516</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="101" t="s">
         <v>518</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="117" t="s">
         <v>478</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="101" t="s">
         <v>477</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="117" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="117" t="s">
         <v>467</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="101" t="s">
         <v>468</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5047,241 +5071,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="117" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103" t="s">
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="117" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103" t="s">
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="117" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103" t="s">
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="117" t="s">
         <v>411</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103" t="s">
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="101" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="117" t="s">
         <v>412</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="103" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="117" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="103" t="s">
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="117" t="s">
         <v>399</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="103" t="s">
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="101" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="100"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="100"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="131"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="139"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="127"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="122"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="130"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="122"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="130"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="122"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="130"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="122"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="123"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="134"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6255,15 +6279,77 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6288,77 +6374,15 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6621,15 +6645,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -8024,12 +8048,12 @@
       <c r="B22" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="115"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="160" t="s">
@@ -9327,15 +9351,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -10814,15 +10838,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -12031,15 +12055,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -13240,15 +13264,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14447,15 +14471,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -15657,15 +15681,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -16853,15 +16877,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -18164,15 +18188,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="160" t="s">
@@ -19185,7 +19209,7 @@
   <dimension ref="B1:P1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19203,461 +19227,467 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="145" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="115" t="s">
         <v>570</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="114" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="114" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121" t="s">
         <v>571</v>
       </c>
-      <c r="I3" s="115"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="142">
+      <c r="B4" s="156">
         <v>1</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159" t="s">
         <v>572</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="146">
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="154">
         <v>44999</v>
       </c>
-      <c r="I4" s="147"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="142">
+      <c r="B5" s="156">
         <v>2</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="159" t="s">
         <v>574</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="146">
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="154">
         <v>44999</v>
       </c>
-      <c r="I5" s="147"/>
+      <c r="I5" s="155"/>
     </row>
     <row r="6" spans="2:9" ht="44.45" customHeight="1">
-      <c r="B6" s="148">
+      <c r="B6" s="146">
         <v>3</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151" t="s">
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="153" t="s">
         <v>576</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="146">
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="154">
         <v>45001</v>
       </c>
-      <c r="I6" s="147"/>
+      <c r="I6" s="155"/>
     </row>
     <row r="7" spans="2:9" ht="69" customHeight="1">
-      <c r="B7" s="148">
+      <c r="B7" s="146">
         <v>4</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="151" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="153" t="s">
         <v>582</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="146">
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="154">
         <v>45001</v>
       </c>
-      <c r="I7" s="147"/>
+      <c r="I7" s="155"/>
     </row>
     <row r="8" spans="2:9" ht="39.6" customHeight="1">
-      <c r="B8" s="148">
+      <c r="B8" s="146">
         <v>5</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="151" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="153" t="s">
         <v>583</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="154">
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="151">
         <v>45002</v>
       </c>
-      <c r="I8" s="155"/>
+      <c r="I8" s="152"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="148">
+      <c r="B9" s="146">
         <v>6</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="103" t="s">
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="101" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="154">
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="151">
         <v>45003</v>
       </c>
-      <c r="I9" s="155"/>
+      <c r="I9" s="152"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="148">
+      <c r="B10" s="146">
         <v>7</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="101" t="s">
         <v>585</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="154">
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="151">
         <v>45005</v>
       </c>
-      <c r="I10" s="155"/>
+      <c r="I10" s="152"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="148"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="B11" s="146">
+        <v>8</v>
+      </c>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="101" t="s">
+        <v>591</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="151">
+        <v>45006</v>
+      </c>
+      <c r="I11" s="152"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="148"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="148"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="148"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="148"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="148"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="148"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B18" s="148"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B19" s="148"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B20" s="148"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B21" s="148"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B23" s="148"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B24" s="148"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B25" s="148"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B26" s="148"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B27" s="148"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B32" s="148"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="127"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="130"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="122"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="122"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="122"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="122"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="134"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20631,11 +20661,81 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
@@ -20652,81 +20752,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20988,15 +21018,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="160"/>
@@ -22315,15 +22345,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160" t="s">
@@ -23694,15 +23724,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="160" t="s">
@@ -24727,7 +24757,7 @@
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -24939,11 +24969,21 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="61" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>589</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="59"/>
     </row>
@@ -24985,15 +25025,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -26281,15 +26321,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160" t="s">
@@ -27606,15 +27646,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -28906,15 +28946,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="160"/>
@@ -30232,15 +30272,15 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="160"/>
@@ -31389,15 +31429,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="160"/>
@@ -32609,15 +32649,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160"/>
@@ -33660,11 +33700,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="145" t="s">
         <v>539</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34089,15 +34129,15 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="160" t="s">
@@ -34161,11 +34201,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="145" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34365,15 +34405,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34431,11 +34471,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="145" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34653,15 +34693,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34722,11 +34762,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="145" t="s">
         <v>528</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -34970,15 +35010,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -44356,12 +44396,12 @@
       <c r="B18" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="115"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160" t="s">

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="4" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="592">
   <si>
     <t>작업일자</t>
   </si>
@@ -2084,10 +2084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pQna_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pQna_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2976,6 +2972,10 @@
   </si>
   <si>
     <t xml:space="preserve"> lemo_product_qna(판매자 문의) &gt; pQna_secret 컬럼 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> lemo_product_qna(판매자 문의) &gt; pQna_title 컬럼 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4815,12 +4815,12 @@
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
       <c r="B8" s="122" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C8" s="123"/>
       <c r="D8" s="124"/>
       <c r="E8" s="125" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F8" s="123"/>
       <c r="G8" s="124"/>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
       <c r="B9" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C9" s="123"/>
       <c r="D9" s="124"/>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
       <c r="B12" s="117" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C12" s="118"/>
       <c r="D12" s="119"/>
@@ -4885,12 +4885,12 @@
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
       <c r="B13" s="117" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="118"/>
       <c r="D13" s="119"/>
       <c r="E13" s="101" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F13" s="118"/>
       <c r="G13" s="119"/>
@@ -4969,12 +4969,12 @@
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
       <c r="B19" s="117" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="103"/>
       <c r="E19" s="101" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F19" s="102"/>
       <c r="G19" s="103"/>
@@ -4983,12 +4983,12 @@
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
       <c r="B20" s="117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C20" s="102"/>
       <c r="D20" s="103"/>
       <c r="E20" s="101" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="103"/>
@@ -4997,12 +4997,12 @@
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
       <c r="B21" s="117" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="102"/>
       <c r="D21" s="103"/>
       <c r="E21" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F21" s="102"/>
       <c r="G21" s="103"/>
@@ -5011,12 +5011,12 @@
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
       <c r="B22" s="117" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
       <c r="E22" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F22" s="102"/>
       <c r="G22" s="103"/>
@@ -5039,12 +5039,12 @@
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
       <c r="B24" s="117" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="102"/>
       <c r="D24" s="103"/>
       <c r="E24" s="101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F24" s="102"/>
       <c r="G24" s="103"/>
@@ -5058,7 +5058,7 @@
       <c r="C25" s="102"/>
       <c r="D25" s="103"/>
       <c r="E25" s="101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F25" s="102"/>
       <c r="G25" s="103"/>
@@ -5072,7 +5072,7 @@
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
       <c r="E26" s="101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="103"/>
@@ -5095,12 +5095,12 @@
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
       <c r="B28" s="117" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C28" s="102"/>
       <c r="D28" s="103"/>
       <c r="E28" s="101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F28" s="102"/>
       <c r="G28" s="103"/>
@@ -5114,7 +5114,7 @@
       <c r="C29" s="102"/>
       <c r="D29" s="103"/>
       <c r="E29" s="101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F29" s="102"/>
       <c r="G29" s="103"/>
@@ -5123,12 +5123,12 @@
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
       <c r="B30" s="117" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
       <c r="E30" s="101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F30" s="102"/>
       <c r="G30" s="103"/>
@@ -5137,12 +5137,12 @@
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
       <c r="B31" s="117" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C31" s="102"/>
       <c r="D31" s="103"/>
       <c r="E31" s="101" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F31" s="102"/>
       <c r="G31" s="103"/>
@@ -5151,12 +5151,12 @@
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
       <c r="B32" s="117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C32" s="118"/>
       <c r="D32" s="119"/>
       <c r="E32" s="101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F32" s="118"/>
       <c r="G32" s="119"/>
@@ -5165,12 +5165,12 @@
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
       <c r="B33" s="117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="118"/>
       <c r="D33" s="119"/>
       <c r="E33" s="101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F33" s="118"/>
       <c r="G33" s="119"/>
@@ -5182,12 +5182,12 @@
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
       <c r="B34" s="117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C34" s="118"/>
       <c r="D34" s="119"/>
       <c r="E34" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F34" s="118"/>
       <c r="G34" s="119"/>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -7695,7 +7695,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -9232,10 +9232,10 @@
         <v>125</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>45</v>
@@ -10401,7 +10401,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -10454,10 +10454,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>151</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>208</v>
@@ -10499,7 +10499,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>45</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>156</v>
@@ -10532,13 +10532,13 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="13" t="s">
@@ -10549,13 +10549,13 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="13" t="s">
@@ -10566,13 +10566,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E11" s="78"/>
       <c r="F11" s="13" t="s">
@@ -10583,13 +10583,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="13" t="s">
@@ -10623,7 +10623,7 @@
         <v>229</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="13" t="s">
@@ -10634,7 +10634,7 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>234</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="66" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>567</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>568</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>69</v>
@@ -10668,13 +10668,13 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="13" t="s">
@@ -10685,7 +10685,7 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="56" t="s">
         <v>152</v>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>154</v>
@@ -10721,7 +10721,7 @@
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>159</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>161</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>42</v>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>265</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C24" s="56" t="s">
         <v>267</v>
@@ -10810,16 +10810,16 @@
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
       <c r="B25" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="C25" s="56" t="s">
         <v>577</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>578</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
@@ -11884,7 +11884,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -11916,10 +11916,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>498</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>499</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -11937,16 +11937,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>208</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>471</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>472</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>45</v>
@@ -13093,7 +13093,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -13125,10 +13125,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>496</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>497</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>156</v>
@@ -14302,7 +14302,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -14334,10 +14334,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>494</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>495</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>94</v>
@@ -15509,7 +15509,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -15541,10 +15541,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -15562,10 +15562,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>494</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>495</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>43</v>
@@ -19208,8 +19208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19228,7 +19228,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
       <c r="B1" s="145" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="145"/>
@@ -19241,7 +19241,7 @@
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
       <c r="B3" s="115" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C3" s="113"/>
       <c r="D3" s="120"/>
@@ -19251,7 +19251,7 @@
       <c r="F3" s="113"/>
       <c r="G3" s="120"/>
       <c r="H3" s="121" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I3" s="114"/>
     </row>
@@ -19262,7 +19262,7 @@
       <c r="C4" s="157"/>
       <c r="D4" s="158"/>
       <c r="E4" s="159" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F4" s="123"/>
       <c r="G4" s="124"/>
@@ -19278,7 +19278,7 @@
       <c r="C5" s="157"/>
       <c r="D5" s="158"/>
       <c r="E5" s="159" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F5" s="123"/>
       <c r="G5" s="124"/>
@@ -19294,7 +19294,7 @@
       <c r="C6" s="147"/>
       <c r="D6" s="148"/>
       <c r="E6" s="153" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F6" s="102"/>
       <c r="G6" s="103"/>
@@ -19310,7 +19310,7 @@
       <c r="C7" s="149"/>
       <c r="D7" s="150"/>
       <c r="E7" s="153" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F7" s="102"/>
       <c r="G7" s="103"/>
@@ -19326,7 +19326,7 @@
       <c r="C8" s="147"/>
       <c r="D8" s="148"/>
       <c r="E8" s="153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F8" s="118"/>
       <c r="G8" s="119"/>
@@ -19342,7 +19342,7 @@
       <c r="C9" s="147"/>
       <c r="D9" s="148"/>
       <c r="E9" s="101" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F9" s="118"/>
       <c r="G9" s="119"/>
@@ -19358,7 +19358,7 @@
       <c r="C10" s="149"/>
       <c r="D10" s="150"/>
       <c r="E10" s="101" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F10" s="118"/>
       <c r="G10" s="119"/>
@@ -19374,7 +19374,7 @@
       <c r="C11" s="149"/>
       <c r="D11" s="150"/>
       <c r="E11" s="101" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F11" s="102"/>
       <c r="G11" s="103"/>
@@ -19384,14 +19384,20 @@
       <c r="I11" s="152"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="146"/>
+      <c r="B12" s="146">
+        <v>9</v>
+      </c>
       <c r="C12" s="149"/>
       <c r="D12" s="150"/>
-      <c r="E12" s="101"/>
+      <c r="E12" s="101" t="s">
+        <v>591</v>
+      </c>
       <c r="F12" s="102"/>
       <c r="G12" s="103"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
+      <c r="H12" s="151">
+        <v>45006</v>
+      </c>
+      <c r="I12" s="152"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
       <c r="B13" s="146"/>
@@ -20847,10 +20853,10 @@
         <v>125</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
@@ -20957,13 +20963,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>560</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="13" t="s">
@@ -20974,13 +20980,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>562</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="13" t="s">
@@ -22056,7 +22062,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -22095,10 +22101,10 @@
         <v>125</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>45</v>
@@ -22150,10 +22156,10 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>69</v>
@@ -22186,7 +22192,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>82</v>
@@ -22222,13 +22228,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>258</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="45" t="s">
@@ -22239,13 +22245,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="69" t="s">
         <v>275</v>
@@ -22258,13 +22264,13 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="45" t="s">
@@ -22275,13 +22281,13 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="45" t="s">
@@ -22292,13 +22298,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
@@ -22309,7 +22315,7 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>304</v>
@@ -22328,7 +22334,7 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>319</v>
@@ -23457,10 +23463,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -23637,13 +23643,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>511</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>512</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="45" t="s">
@@ -23654,13 +23660,13 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="45" t="s">
@@ -23671,10 +23677,10 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>80</v>
@@ -23688,10 +23694,10 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>80</v>
@@ -23705,13 +23711,13 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="C19" s="91" t="s">
         <v>519</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="D19" s="24" t="s">
         <v>520</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>120</v>
@@ -23736,7 +23742,7 @@
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="160" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C22" s="161"/>
       <c r="D22" s="161"/>
@@ -24754,10 +24760,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H998"/>
+  <dimension ref="B1:H997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -24776,7 +24782,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -24843,16 +24849,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -24871,7 +24877,7 @@
         <v>370</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>61</v>
@@ -24884,14 +24890,14 @@
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>60</v>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="45" t="s">
@@ -24905,10 +24911,10 @@
         <v>372</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="45" t="s">
@@ -24919,30 +24925,30 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>33</v>
+        <v>375</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>376</v>
+        <v>172</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="45" t="s">
@@ -24953,39 +24959,31 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>374</v>
+        <v>585</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>172</v>
+        <v>586</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>587</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>589</v>
+      </c>
       <c r="F12" s="45" t="s">
-        <v>46</v>
+        <v>588</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="61" t="s">
-        <v>586</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>589</v>
-      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="59"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="55"/>
@@ -24994,55 +24992,50 @@
       <c r="E14" s="12"/>
       <c r="F14" s="45"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="18" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B18" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
+    </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -25053,18 +25046,15 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-    </row>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="25" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="26" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
@@ -26038,12 +26028,11 @@
     <row r="995" ht="16.5" customHeight="1"/>
     <row r="996" ht="16.5" customHeight="1"/>
     <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -26135,10 +26124,10 @@
         <v>125</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
@@ -26152,10 +26141,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -27373,7 +27362,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -27427,10 +27416,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -27603,10 +27592,10 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>80</v>
@@ -27620,10 +27609,10 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="66" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>80</v>
@@ -28696,7 +28685,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -28769,10 +28758,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -28873,10 +28862,10 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>69</v>
@@ -29996,7 +29985,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -30029,10 +30018,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>402</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>403</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
@@ -30069,10 +30058,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>565</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>566</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
@@ -30086,7 +30075,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>228</v>
@@ -30103,7 +30092,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>229</v>
@@ -30120,7 +30109,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>234</v>
@@ -30137,7 +30126,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>60</v>
@@ -30154,16 +30143,16 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>483</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>484</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>312</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>45</v>
@@ -30173,7 +30162,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>156</v>
@@ -30192,10 +30181,10 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>486</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>487</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>15</v>
@@ -31374,10 +31363,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -32531,10 +32520,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -33701,7 +33690,7 @@
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="B1" s="145" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="145"/>
@@ -33737,10 +33726,10 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>69</v>
@@ -33760,7 +33749,7 @@
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>17</v>
@@ -33777,7 +33766,7 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>313</v>
@@ -33796,13 +33785,13 @@
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="13" t="s">
@@ -33813,7 +33802,7 @@
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>93</v>
@@ -33822,7 +33811,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>45</v>
@@ -33832,16 +33821,16 @@
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>45</v>
@@ -33851,7 +33840,7 @@
     </row>
     <row r="10" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>22</v>
@@ -33870,7 +33859,7 @@
     </row>
     <row r="11" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>20</v>
@@ -33889,7 +33878,7 @@
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>317</v>
@@ -33906,7 +33895,7 @@
     </row>
     <row r="13" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>98</v>
@@ -33925,7 +33914,7 @@
     </row>
     <row r="14" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>97</v>
@@ -33944,7 +33933,7 @@
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>100</v>
@@ -33963,7 +33952,7 @@
     </row>
     <row r="16" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>118</v>
@@ -33982,7 +33971,7 @@
     </row>
     <row r="17" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>119</v>
@@ -34001,7 +33990,7 @@
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>121</v>
@@ -34020,7 +34009,7 @@
     </row>
     <row r="19" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>319</v>
@@ -34039,7 +34028,7 @@
     </row>
     <row r="20" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B20" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>95</v>
@@ -34056,7 +34045,7 @@
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B21" s="61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>318</v>
@@ -34073,7 +34062,7 @@
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C22" s="56" t="s">
         <v>96</v>
@@ -34141,7 +34130,7 @@
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="160" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C29" s="161"/>
       <c r="D29" s="161"/>
@@ -34202,7 +34191,7 @@
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="B1" s="145" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="145"/>
@@ -34238,10 +34227,10 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
@@ -34254,18 +34243,18 @@
         <v>297</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="13" t="s">
@@ -34472,7 +34461,7 @@
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="B1" s="145" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="145"/>
@@ -34508,10 +34497,10 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
@@ -34548,10 +34537,10 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>556</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>557</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
@@ -34565,7 +34554,7 @@
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>105</v>
@@ -34763,7 +34752,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="145"/>
@@ -34797,10 +34786,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
@@ -34810,7 +34799,7 @@
         <v>184</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>59</v>
@@ -34818,7 +34807,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>26</v>
@@ -34835,13 +34824,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="13" t="s">
@@ -34852,13 +34841,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13" t="s">
@@ -34869,13 +34858,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="13" t="s">
@@ -34886,7 +34875,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>102</v>
@@ -34909,7 +34898,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
@@ -34920,7 +34909,7 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>24</v>
@@ -34937,7 +34926,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>25</v>
@@ -41818,10 +41807,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>506</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>507</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>43</v>
@@ -41871,13 +41860,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="D8" s="13" t="s">
         <v>408</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>409</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="45"/>
@@ -42968,7 +42957,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
       <c r="B1" s="166" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
@@ -43003,10 +42992,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>506</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>507</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
@@ -43022,13 +43011,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>110</v>
@@ -43041,13 +43030,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>110</v>
@@ -43119,7 +43108,7 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="167" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C14" s="168"/>
       <c r="D14" s="168"/>
@@ -44221,10 +44210,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>69</v>
@@ -44246,10 +44235,10 @@
         <v>125</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>46</v>
@@ -44278,7 +44267,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>41</v>
@@ -44288,14 +44277,14 @@
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>127</v>

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\LeMo\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC3F3F-EC34-46CF-B347-320D59B674AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="4" activeTab="22"/>
+    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <sheet name="좋아요" sheetId="36" r:id="rId28"/>
     <sheet name="나의 찜" sheetId="38" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="595">
   <si>
     <t>작업일자</t>
   </si>
@@ -2978,11 +2979,23 @@
     <t xml:space="preserve"> lemo_product_qna(판매자 문의) &gt; pQna_title 컬럼 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pQna_reply_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 답변일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> lemo_product_qna(판매자 문의) &gt; pQna_reply_date 컬럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4261,13 +4274,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4276,59 +4286,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4341,6 +4312,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4387,20 +4373,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4410,6 +4429,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4423,26 +4445,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4709,361 +4722,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P1012"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="5"/>
+    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="116">
+      <c r="G4" s="140">
         <v>44982</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="112" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="121" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121" t="s">
+      <c r="F7" s="139"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="108" t="s">
         <v>382</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
         <v>554</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="101" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="101" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="100" t="s">
         <v>515</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="101" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="100" t="s">
         <v>516</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="101" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="103" t="s">
         <v>517</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="101" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="101" t="s">
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="101" t="s">
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="101" t="s">
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="101" t="s">
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="101" t="s">
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103" t="s">
         <v>472</v>
       </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="100" t="s">
         <v>477</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="101" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103" t="s">
         <v>476</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="100" t="s">
         <v>415</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="101" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="100" t="s">
         <v>466</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="101" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103" t="s">
         <v>467</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="101" t="s">
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="101" t="s">
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5071,241 +5084,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="101" t="s">
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="101" t="s">
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="100" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="101" t="s">
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="100" t="s">
         <v>393</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="101" t="s">
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103" t="s">
         <v>392</v>
       </c>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="100" t="s">
         <v>410</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="101" t="s">
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103" t="s">
         <v>409</v>
       </c>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="100" t="s">
         <v>411</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="101" t="s">
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="100" t="s">
         <v>396</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="101" t="s">
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="F33" s="118"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="100" t="s">
         <v>398</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="101" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="103" t="s">
         <v>399</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="140"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="139"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="128"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="131"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="131"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="131"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="130"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="131"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="130"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="131"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="132"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="134"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6279,53 +6292,39 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I46"/>
@@ -6350,39 +6349,53 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6391,25 +6404,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -6645,15 +6658,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -7672,25 +7685,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -8048,12 +8061,12 @@
       <c r="B22" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="115"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="160" t="s">
@@ -9113,25 +9126,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -9351,15 +9364,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -10378,25 +10391,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:H989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -10598,7 +10611,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.15" customHeight="1">
+    <row r="13" spans="2:8" ht="22.2" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>230</v>
       </c>
@@ -10838,15 +10851,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -11861,25 +11874,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -12055,15 +12068,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -13070,25 +13083,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -13264,15 +13277,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14279,25 +14292,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -14433,7 +14446,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.15" customHeight="1">
+    <row r="13" spans="2:8" ht="22.2" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="56"/>
       <c r="D13" s="13"/>
@@ -14471,15 +14484,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -15486,25 +15499,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -15681,15 +15694,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -16696,25 +16709,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -16877,15 +16890,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -17892,25 +17905,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:H981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -18188,15 +18201,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="160" t="s">
@@ -19205,495 +19218,501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="5"/>
+    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="156" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="114" t="s">
         <v>570</v>
       </c>
-      <c r="I3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="156">
+      <c r="B4" s="142">
         <v>1</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145" t="s">
         <v>571</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="154">
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="146">
         <v>44999</v>
       </c>
-      <c r="I4" s="155"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="156">
+      <c r="B5" s="142">
         <v>2</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="154">
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="146">
         <v>44999</v>
       </c>
-      <c r="I5" s="155"/>
-    </row>
-    <row r="6" spans="2:9" ht="44.45" customHeight="1">
-      <c r="B6" s="146">
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="2:9" ht="44.4" customHeight="1">
+      <c r="B6" s="148">
         <v>3</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="153" t="s">
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151" t="s">
         <v>575</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="154">
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="146">
         <v>45001</v>
       </c>
-      <c r="I6" s="155"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="2:9" ht="69" customHeight="1">
-      <c r="B7" s="146">
+      <c r="B7" s="148">
         <v>4</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="153" t="s">
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151" t="s">
         <v>581</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="154">
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="146">
         <v>45001</v>
       </c>
-      <c r="I7" s="155"/>
+      <c r="I7" s="147"/>
     </row>
     <row r="8" spans="2:9" ht="39.6" customHeight="1">
-      <c r="B8" s="146">
+      <c r="B8" s="148">
         <v>5</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="153" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151" t="s">
         <v>582</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="151">
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="154">
         <v>45002</v>
       </c>
-      <c r="I8" s="152"/>
+      <c r="I8" s="155"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="146">
+      <c r="B9" s="148">
         <v>6</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="101" t="s">
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="151">
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="154">
         <v>45003</v>
       </c>
-      <c r="I9" s="152"/>
+      <c r="I9" s="155"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="146">
+      <c r="B10" s="148">
         <v>7</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="101" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="103" t="s">
         <v>584</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="151">
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="154">
         <v>45005</v>
       </c>
-      <c r="I10" s="152"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="146">
+      <c r="B11" s="148">
         <v>8</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="101" t="s">
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="103" t="s">
         <v>590</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="151">
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="154">
         <v>45006</v>
       </c>
-      <c r="I11" s="152"/>
+      <c r="I11" s="155"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="146">
+      <c r="B12" s="148">
         <v>9</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="101" t="s">
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="103" t="s">
         <v>591</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="151">
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="154">
         <v>45006</v>
       </c>
-      <c r="I12" s="152"/>
+      <c r="I12" s="155"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="146"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="B13" s="148">
+        <v>10</v>
+      </c>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="103" t="s">
+        <v>594</v>
+      </c>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="154">
+        <v>45006</v>
+      </c>
+      <c r="I13" s="155"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="146"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="146"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="146"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B18" s="146"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B19" s="146"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B20" s="146"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B23" s="146"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="100"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B24" s="146"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B25" s="146"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B26" s="146"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B27" s="146"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="139"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="127"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="128"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="130"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="131"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="121"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="131"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="130"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="131"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="131"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="131"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="132"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="134"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="125"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20667,54 +20686,38 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -20731,38 +20734,54 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20771,25 +20790,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -21024,15 +21043,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="160"/>
@@ -22039,25 +22058,25 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -22351,15 +22370,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160" t="s">
@@ -23386,25 +23405,25 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -23730,15 +23749,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="160" t="s">
@@ -24759,25 +24778,25 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -24977,11 +24996,19 @@
       <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="55"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="45" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="48"/>
     </row>
@@ -25014,15 +25041,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160"/>
@@ -26041,25 +26068,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -26310,15 +26337,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160" t="s">
@@ -27339,25 +27366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -27635,15 +27662,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="160"/>
@@ -28662,25 +28689,25 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="B1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -28935,15 +28962,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="160"/>
@@ -29962,25 +29989,25 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -30261,15 +30288,15 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="160"/>
@@ -31288,25 +31315,25 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="B1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -31418,15 +31445,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="160"/>
@@ -32445,25 +32472,25 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -32638,15 +32665,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160"/>
@@ -33671,29 +33698,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="156" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34118,15 +34145,15 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="160" t="s">
@@ -34172,29 +34199,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="156" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34394,15 +34421,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34442,29 +34469,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="156" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34682,15 +34709,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34730,32 +34757,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="3" width="14.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="156" t="s">
         <v>527</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -34999,15 +35026,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -41732,23 +41759,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -42936,23 +42963,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -44132,24 +44159,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="4" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
@@ -44385,12 +44412,12 @@
       <c r="B18" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="160" t="s">

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC3F3F-EC34-46CF-B347-320D59B674AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <sheet name="좋아요" sheetId="36" r:id="rId28"/>
     <sheet name="나의 찜" sheetId="38" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="597">
   <si>
     <t>작업일자</t>
   </si>
@@ -2081,30 +2080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pQna_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_regip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pQna_udate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2952,10 +2927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pQna_secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀글 유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2980,22 +2951,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pQna_reply_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문의 답변일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> lemo_product_qna(판매자 문의) &gt; pQna_reply_date 컬럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  lemo_product_qna(판매자 문의) &gt; qna_title 컬럼 추가
+2.  lemo_product_qna(판매자 문의) &gt; 컬럼이름 전체 수정(pQna_* -&gt; qna_*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_reply_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -3976,7 +3984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4275,9 +4283,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4286,20 +4303,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4312,21 +4368,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4373,53 +4414,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4429,9 +4437,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4445,17 +4450,26 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4722,361 +4736,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1012"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="5"/>
+    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="138" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="140">
+      <c r="G4" s="118">
         <v>44982</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="138" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="114" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="114" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="116"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="108" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111" t="s">
-        <v>554</v>
-      </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
+      <c r="B8" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="108" t="s">
-        <v>553</v>
-      </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111" t="s">
+      <c r="B9" s="124" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="100" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
+      <c r="B12" s="119" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="100" t="s">
-        <v>516</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="B13" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="103" t="s">
-        <v>517</v>
-      </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+        <v>511</v>
+      </c>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="100" t="s">
-        <v>473</v>
-      </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
+      <c r="B19" s="119" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="103" t="s">
-        <v>472</v>
-      </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+        <v>466</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="100" t="s">
-        <v>477</v>
-      </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="119" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="103" t="s">
-        <v>476</v>
-      </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+        <v>470</v>
+      </c>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="100" t="s">
-        <v>415</v>
-      </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
+      <c r="B21" s="119" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="103" t="s">
+        <v>455</v>
+      </c>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
+    </row>
+    <row r="22" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B22" s="119" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
-    </row>
-    <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="100" t="s">
-        <v>466</v>
-      </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103" t="s">
-        <v>467</v>
-      </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="100" t="s">
-        <v>384</v>
-      </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
+      <c r="B24" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+        <v>379</v>
+      </c>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+        <v>377</v>
+      </c>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5085,240 +5099,240 @@
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
       <c r="E26" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+        <v>380</v>
+      </c>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="103" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+    </row>
+    <row r="29" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B29" s="119" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+    </row>
+    <row r="30" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B30" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
+    </row>
+    <row r="31" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B31" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
+    </row>
+    <row r="32" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B32" s="119" t="s">
+        <v>405</v>
+      </c>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
-    </row>
-    <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="100" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103" t="s">
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+    </row>
+    <row r="33" spans="2:16" ht="21.75" customHeight="1">
+      <c r="B33" s="119" t="s">
         <v>390</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-    </row>
-    <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="100" t="s">
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="102"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+    </row>
+    <row r="34" spans="2:16" ht="21.75" customHeight="1">
+      <c r="B34" s="119" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103" t="s">
-        <v>392</v>
-      </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
-    </row>
-    <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103" t="s">
-        <v>409</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
-    </row>
-    <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="100" t="s">
-        <v>411</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="103" t="s">
-        <v>395</v>
-      </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
-    </row>
-    <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="100" t="s">
-        <v>396</v>
-      </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="103" t="s">
-        <v>397</v>
-      </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-    </row>
-    <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="100" t="s">
-        <v>398</v>
-      </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="103" t="s">
-        <v>399</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="100"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="103"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="100"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="103"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="102"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="131"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="141"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="129"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="122"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="122"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="132"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="122"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="132"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="122"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="132"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="123"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="136"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6292,15 +6306,77 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6325,77 +6401,15 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6404,34 +6418,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -6506,10 +6520,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -6658,24 +6672,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -7685,34 +7699,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>572</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -7764,10 +7778,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -8058,81 +8072,81 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="164"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="164"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="169" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="171"/>
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="171"/>
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="176" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="178"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="30" spans="2:8" ht="16.5" customHeight="1"/>
@@ -9126,34 +9140,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -9222,10 +9236,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -9245,10 +9259,10 @@
         <v>125</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>45</v>
@@ -9364,24 +9378,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -10391,34 +10405,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -10467,10 +10481,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -10486,7 +10500,7 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>151</v>
@@ -10503,7 +10517,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>208</v>
@@ -10512,7 +10526,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>45</v>
@@ -10524,7 +10538,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>156</v>
@@ -10545,13 +10559,13 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="13" t="s">
@@ -10562,13 +10576,13 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="13" t="s">
@@ -10579,13 +10593,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E11" s="78"/>
       <c r="F11" s="13" t="s">
@@ -10596,13 +10610,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="13" t="s">
@@ -10611,7 +10625,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.2" customHeight="1">
+    <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>230</v>
       </c>
@@ -10636,7 +10650,7 @@
         <v>229</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="13" t="s">
@@ -10647,7 +10661,7 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>234</v>
@@ -10664,10 +10678,10 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="66" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>69</v>
@@ -10681,13 +10695,13 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="66" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="13" t="s">
@@ -10698,7 +10712,7 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="66" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C18" s="56" t="s">
         <v>152</v>
@@ -10715,7 +10729,7 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="66" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>154</v>
@@ -10734,7 +10748,7 @@
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="66" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>159</v>
@@ -10753,7 +10767,7 @@
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="66" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>161</v>
@@ -10770,7 +10784,7 @@
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="65" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>42</v>
@@ -10789,7 +10803,7 @@
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="66" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>265</v>
@@ -10806,7 +10820,7 @@
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="66" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C24" s="56" t="s">
         <v>267</v>
@@ -10823,16 +10837,16 @@
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
       <c r="B25" s="66" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
@@ -10851,15 +10865,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -10884,15 +10898,15 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="169" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="171"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1">
       <c r="B34" s="26"/>
@@ -11874,34 +11888,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>468</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -11929,10 +11943,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -11950,16 +11964,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>208</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>45</v>
@@ -12068,15 +12082,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -12095,13 +12109,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="171"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -13083,34 +13097,34 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>474</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -13138,10 +13152,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
@@ -13159,7 +13173,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>156</v>
@@ -13277,15 +13291,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -13304,13 +13318,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="171"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -14292,34 +14306,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -14347,10 +14361,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -14368,10 +14382,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>94</v>
@@ -14446,7 +14460,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.2" customHeight="1">
+    <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="56"/>
       <c r="D13" s="13"/>
@@ -14484,15 +14498,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14511,13 +14525,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="171"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -15499,34 +15513,34 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>463</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -15554,10 +15568,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -15575,10 +15589,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>43</v>
@@ -15694,15 +15708,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -15721,13 +15735,13 @@
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="169"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="171"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -16709,34 +16723,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -16890,15 +16904,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -16917,13 +16931,13 @@
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="167"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="171"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -17905,34 +17919,34 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -18201,26 +18215,26 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="162" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="164"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="44"/>
@@ -19218,119 +19232,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="5"/>
+    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
-        <v>568</v>
-      </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
+      <c r="B1" s="147" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="116" t="s">
-        <v>569</v>
-      </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="114" t="s">
+      <c r="B3" s="117" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="114" t="s">
-        <v>570</v>
-      </c>
-      <c r="I3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="142">
+      <c r="B4" s="158">
         <v>1</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145" t="s">
-        <v>571</v>
-      </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="146">
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161" t="s">
+        <v>565</v>
+      </c>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="156">
         <v>44999</v>
       </c>
-      <c r="I4" s="147"/>
+      <c r="I4" s="157"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="142">
+      <c r="B5" s="158">
         <v>2</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145" t="s">
-        <v>573</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="146">
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="156">
         <v>44999</v>
       </c>
-      <c r="I5" s="147"/>
-    </row>
-    <row r="6" spans="2:9" ht="44.4" customHeight="1">
+      <c r="I5" s="157"/>
+    </row>
+    <row r="6" spans="2:9" ht="44.45" customHeight="1">
       <c r="B6" s="148">
         <v>3</v>
       </c>
       <c r="C6" s="149"/>
       <c r="D6" s="150"/>
-      <c r="E6" s="151" t="s">
-        <v>575</v>
-      </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="146">
+      <c r="E6" s="155" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="156">
         <v>45001</v>
       </c>
-      <c r="I6" s="147"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="2:9" ht="69" customHeight="1">
       <c r="B7" s="148">
         <v>4</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="151" t="s">
-        <v>581</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="146">
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="155" t="s">
+        <v>575</v>
+      </c>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="156">
         <v>45001</v>
       </c>
-      <c r="I7" s="147"/>
+      <c r="I7" s="157"/>
     </row>
     <row r="8" spans="2:9" ht="39.6" customHeight="1">
       <c r="B8" s="148">
@@ -19338,15 +19352,15 @@
       </c>
       <c r="C8" s="149"/>
       <c r="D8" s="150"/>
-      <c r="E8" s="151" t="s">
-        <v>582</v>
-      </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="154">
+      <c r="E8" s="155" t="s">
+        <v>576</v>
+      </c>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="153">
         <v>45002</v>
       </c>
-      <c r="I8" s="155"/>
+      <c r="I8" s="154"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
       <c r="B9" s="148">
@@ -19355,364 +19369,370 @@
       <c r="C9" s="149"/>
       <c r="D9" s="150"/>
       <c r="E9" s="103" t="s">
-        <v>583</v>
-      </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="154">
+        <v>577</v>
+      </c>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="153">
         <v>45003</v>
       </c>
-      <c r="I9" s="155"/>
+      <c r="I9" s="154"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
       <c r="B10" s="148">
         <v>7</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="103" t="s">
-        <v>584</v>
-      </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="154">
+        <v>578</v>
+      </c>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="153">
         <v>45005</v>
       </c>
-      <c r="I10" s="155"/>
+      <c r="I10" s="154"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
       <c r="B11" s="148">
         <v>8</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="103" t="s">
-        <v>590</v>
-      </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="154">
+        <v>583</v>
+      </c>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="153">
         <v>45006</v>
       </c>
-      <c r="I11" s="155"/>
+      <c r="I11" s="154"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
       <c r="B12" s="148">
         <v>9</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="103" t="s">
-        <v>591</v>
-      </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="154">
+        <v>584</v>
+      </c>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="153">
         <v>45006</v>
       </c>
-      <c r="I12" s="155"/>
+      <c r="I12" s="154"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
       <c r="B13" s="148">
         <v>10</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="103" t="s">
-        <v>594</v>
-      </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="154">
+        <v>586</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="153">
         <v>45006</v>
       </c>
-      <c r="I13" s="155"/>
-    </row>
-    <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="148"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="I13" s="154"/>
+    </row>
+    <row r="14" spans="2:9" ht="38.25" customHeight="1">
+      <c r="B14" s="148">
+        <v>11</v>
+      </c>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="155" t="s">
+        <v>587</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="153">
+        <v>45007</v>
+      </c>
+      <c r="I14" s="154"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
       <c r="B15" s="148"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="103"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
       <c r="B16" s="148"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="103"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
       <c r="B17" s="148"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="103"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
       <c r="B18" s="148"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="103"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
       <c r="B19" s="148"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="103"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
       <c r="B20" s="148"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="103"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
       <c r="B21" s="148"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
       <c r="E21" s="103"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
       <c r="E22" s="103"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
       <c r="B23" s="148"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="103"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
       <c r="B24" s="148"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="103"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
       <c r="B25" s="148"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
       <c r="E25" s="103"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
       <c r="B26" s="148"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="103"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
       <c r="B27" s="148"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
       <c r="E27" s="103"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
       <c r="B28" s="148"/>
       <c r="C28" s="149"/>
       <c r="D28" s="150"/>
       <c r="E28" s="103"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
       <c r="B29" s="148"/>
       <c r="C29" s="149"/>
       <c r="D29" s="150"/>
       <c r="E29" s="103"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
       <c r="B30" s="148"/>
       <c r="C30" s="149"/>
       <c r="D30" s="150"/>
       <c r="E30" s="103"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
       <c r="B31" s="148"/>
       <c r="C31" s="149"/>
       <c r="D31" s="150"/>
       <c r="E31" s="103"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
       <c r="B32" s="148"/>
       <c r="C32" s="149"/>
       <c r="D32" s="150"/>
       <c r="E32" s="103"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="122"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="122"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="132"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="122"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="122"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="136"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20686,11 +20706,81 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
@@ -20707,81 +20797,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20790,34 +20810,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -20872,10 +20892,10 @@
         <v>125</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
@@ -20982,13 +21002,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="13" t="s">
@@ -20999,13 +21019,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="13" t="s">
@@ -21043,24 +21063,24 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="160"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="164"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="44"/>
@@ -22058,35 +22078,35 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -22120,10 +22140,10 @@
         <v>125</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>45</v>
@@ -22175,10 +22195,10 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>69</v>
@@ -22211,7 +22231,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="66" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>82</v>
@@ -22247,13 +22267,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>258</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="45" t="s">
@@ -22264,13 +22284,13 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E12" s="69" t="s">
         <v>275</v>
@@ -22283,13 +22303,13 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="45" t="s">
@@ -22300,13 +22320,13 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="45" t="s">
@@ -22317,13 +22337,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
@@ -22334,7 +22354,7 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>304</v>
@@ -22353,7 +22373,7 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="64" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>319</v>
@@ -22370,35 +22390,35 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="162" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="169"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="171"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -23405,35 +23425,35 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -23482,10 +23502,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -23662,13 +23682,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="61" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="45" t="s">
@@ -23679,13 +23699,13 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="45" t="s">
@@ -23696,10 +23716,10 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>80</v>
@@ -23713,10 +23733,10 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="61" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>80</v>
@@ -23730,13 +23750,13 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="64" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>120</v>
@@ -23749,26 +23769,26 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="160" t="s">
-        <v>557</v>
-      </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
+      <c r="B22" s="162" t="s">
+        <v>551</v>
+      </c>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="164"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -24778,35 +24798,35 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="B1:H997"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -24834,7 +24854,7 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>369</v>
+        <v>588</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>68</v>
@@ -24868,16 +24888,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -24891,15 +24911,15 @@
       </c>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="2:8" ht="21.75" customHeight="1">
+    <row r="7" spans="2:8" s="99" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>60</v>
+        <v>596</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="45" t="s">
@@ -24909,14 +24929,14 @@
       <c r="H7" s="48"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B8" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
+      <c r="B8" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="45" t="s">
@@ -24927,13 +24947,13 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>372</v>
+        <v>590</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="45" t="s">
@@ -24944,30 +24964,30 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>374</v>
+        <v>591</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>375</v>
+        <v>33</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>373</v>
+        <v>592</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="45" t="s">
@@ -24978,91 +24998,104 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B13" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B14" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>588</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="55" t="s">
-        <v>592</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="45" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="55"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="45"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="19" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-    </row>
-    <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="160"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -25073,15 +25106,18 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" customHeight="1"/>
+      <c r="B23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+    </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="26" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
@@ -26055,11 +26091,12 @@
     <row r="995" ht="16.5" customHeight="1"/>
     <row r="996" ht="16.5" customHeight="1"/>
     <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -26068,35 +26105,35 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -26151,10 +26188,10 @@
         <v>125</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>45</v>
@@ -26168,10 +26205,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -26337,26 +26374,26 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="162" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="164"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="26"/>
@@ -27366,35 +27403,35 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -27443,10 +27480,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -27619,10 +27656,10 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
       <c r="B15" s="66" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>80</v>
@@ -27636,10 +27673,10 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="66" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>80</v>
@@ -27662,24 +27699,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -28689,35 +28726,35 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>394</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -28785,10 +28822,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>69</v>
@@ -28889,10 +28926,10 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>69</v>
@@ -28962,24 +28999,24 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="160"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="164"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -29989,35 +30026,35 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -30045,10 +30082,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
@@ -30085,10 +30122,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
@@ -30102,7 +30139,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>228</v>
@@ -30119,7 +30156,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>229</v>
@@ -30136,7 +30173,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>234</v>
@@ -30153,7 +30190,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="66" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>60</v>
@@ -30170,16 +30207,16 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="66" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>312</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>45</v>
@@ -30189,7 +30226,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="66" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>156</v>
@@ -30208,10 +30245,10 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>15</v>
@@ -30288,24 +30325,24 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="160"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="164"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -31315,35 +31352,35 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -31390,10 +31427,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -31445,24 +31482,24 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="129"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B12" s="160"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="164"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="26"/>
@@ -32472,35 +32509,35 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -32547,10 +32584,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>69</v>
@@ -32665,33 +32702,33 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="160"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="164"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="169"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="171"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -33698,29 +33735,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
-        <v>538</v>
-      </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="B1" s="147" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -33753,10 +33790,10 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>69</v>
@@ -33776,7 +33813,7 @@
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>17</v>
@@ -33793,7 +33830,7 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>313</v>
@@ -33812,13 +33849,13 @@
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="13" t="s">
@@ -33829,7 +33866,7 @@
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>93</v>
@@ -33838,7 +33875,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>45</v>
@@ -33848,16 +33885,16 @@
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>45</v>
@@ -33867,7 +33904,7 @@
     </row>
     <row r="10" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="61" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>22</v>
@@ -33886,7 +33923,7 @@
     </row>
     <row r="11" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>20</v>
@@ -33905,7 +33942,7 @@
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>317</v>
@@ -33922,7 +33959,7 @@
     </row>
     <row r="13" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>98</v>
@@ -33941,7 +33978,7 @@
     </row>
     <row r="14" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="61" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>97</v>
@@ -33960,7 +33997,7 @@
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="63" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>100</v>
@@ -33979,7 +34016,7 @@
     </row>
     <row r="16" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="61" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>118</v>
@@ -33998,7 +34035,7 @@
     </row>
     <row r="17" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="61" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>119</v>
@@ -34017,7 +34054,7 @@
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="65" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>121</v>
@@ -34036,7 +34073,7 @@
     </row>
     <row r="19" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="93" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>319</v>
@@ -34055,7 +34092,7 @@
     </row>
     <row r="20" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B20" s="66" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>95</v>
@@ -34072,7 +34109,7 @@
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B21" s="61" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>318</v>
@@ -34089,7 +34126,7 @@
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C22" s="56" t="s">
         <v>96</v>
@@ -34145,26 +34182,26 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B29" s="160" t="s">
-        <v>480</v>
-      </c>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="162"/>
+      <c r="B29" s="162" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
     </row>
     <row r="30" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B30" s="55"/>
@@ -34199,29 +34236,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
-        <v>525</v>
-      </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="B1" s="147" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34254,10 +34291,10 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
@@ -34270,18 +34307,18 @@
         <v>297</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="13" t="s">
@@ -34421,15 +34458,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34469,29 +34506,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="B1" s="147" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34524,10 +34561,10 @@
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
@@ -34564,10 +34601,10 @@
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
@@ -34581,7 +34618,7 @@
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>105</v>
@@ -34709,15 +34746,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34757,32 +34794,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="3" width="14.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
-        <v>527</v>
-      </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="B1" s="147" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -34813,10 +34850,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>69</v>
@@ -34826,7 +34863,7 @@
         <v>184</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>59</v>
@@ -34834,7 +34871,7 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="61" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>26</v>
@@ -34851,13 +34888,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="61" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="13" t="s">
@@ -34868,13 +34905,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13" t="s">
@@ -34885,13 +34922,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="13" t="s">
@@ -34902,7 +34939,7 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>102</v>
@@ -34925,7 +34962,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
@@ -34936,7 +34973,7 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>24</v>
@@ -34953,7 +34990,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>25</v>
@@ -35026,15 +35063,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -41759,32 +41796,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -41834,10 +41871,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>43</v>
@@ -41887,13 +41924,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="66" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="45"/>
@@ -41931,33 +41968,33 @@
       <c r="B12" s="76"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="167"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="169"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="171"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="26"/>
@@ -42963,32 +43000,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>514</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="168" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -43019,10 +43056,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="66" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>43</v>
@@ -43038,13 +43075,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="66" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>110</v>
@@ -43057,13 +43094,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="66" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>110</v>
@@ -43123,37 +43160,37 @@
       <c r="B12" s="76"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="167" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="169"/>
+      <c r="B14" s="169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="171"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="26"/>
@@ -44159,33 +44196,33 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -44237,10 +44274,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="82" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>69</v>
@@ -44262,10 +44299,10 @@
         <v>125</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>46</v>
@@ -44294,7 +44331,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="61" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>41</v>
@@ -44304,14 +44341,14 @@
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="45" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="61" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>127</v>
@@ -44409,44 +44446,44 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="172"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="174"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="173"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="175"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="603">
   <si>
     <t>작업일자</t>
   </si>
@@ -2997,6 +2997,30 @@
   </si>
   <si>
     <t>qna_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.lemo_diary_comment(여행일기 댓글) &gt; com_state 컬럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록:1 삭제:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4288,13 +4312,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4303,59 +4324,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4368,6 +4350,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4414,20 +4411,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4437,6 +4467,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4450,26 +4483,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4758,339 +4782,339 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="116"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="142">
         <v>44982</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="116"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123" t="s">
+      <c r="F7" s="141"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="117"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="110" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127" t="s">
+      <c r="C8" s="111"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113" t="s">
         <v>548</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="110" t="s">
         <v>547</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="103" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="102" t="s">
         <v>509</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="102" t="s">
         <v>510</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="105" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="103" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="103" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="103" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="103" t="s">
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="107"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="103" t="s">
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="103" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="102" t="s">
         <v>471</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="103" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="102" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="103" t="s">
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="103" t="s">
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="103" t="s">
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="103" t="s">
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="103" t="s">
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5098,241 +5122,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="103" t="s">
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="102" t="s">
         <v>383</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="103" t="s">
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105" t="s">
         <v>382</v>
       </c>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="102" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="103" t="s">
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="102" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="103" t="s">
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="104"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="102" t="s">
         <v>404</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="103" t="s">
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105" t="s">
         <v>403</v>
       </c>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="102" t="s">
         <v>405</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="103" t="s">
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="102" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="103" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="107"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="103" t="s">
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="105" t="s">
         <v>393</v>
       </c>
-      <c r="F34" s="120"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="107"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="107"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="142"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="141"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="129"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="132"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="132"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="123"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="132"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="123"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="132"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="136"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="127"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6306,53 +6330,39 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I46"/>
@@ -6377,39 +6387,53 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6672,15 +6696,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -8075,12 +8099,12 @@
       <c r="B22" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="162" t="s">
@@ -9378,15 +9402,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -10865,15 +10889,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -12082,15 +12106,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -13291,15 +13315,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14498,15 +14522,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -15708,15 +15732,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -16904,15 +16928,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="129"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -18215,15 +18239,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="162" t="s">
@@ -19236,7 +19260,7 @@
   <dimension ref="B1:P1008"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19254,485 +19278,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="158" t="s">
         <v>562</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="118" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123" t="s">
+      <c r="F3" s="141"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="116" t="s">
         <v>564</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="158">
+      <c r="B4" s="144">
         <v>1</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161" t="s">
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
         <v>565</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="156">
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="148">
         <v>44999</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="149"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="158">
+      <c r="B5" s="144">
         <v>2</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="147" t="s">
         <v>567</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="156">
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="148">
         <v>44999</v>
       </c>
-      <c r="I5" s="157"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="2:9" ht="44.45" customHeight="1">
-      <c r="B6" s="148">
+      <c r="B6" s="150">
         <v>3</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="155" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153" t="s">
         <v>569</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="156">
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="148">
         <v>45001</v>
       </c>
-      <c r="I6" s="157"/>
+      <c r="I6" s="149"/>
     </row>
     <row r="7" spans="2:9" ht="69" customHeight="1">
-      <c r="B7" s="148">
+      <c r="B7" s="150">
         <v>4</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="155" t="s">
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="153" t="s">
         <v>575</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="156">
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="148">
         <v>45001</v>
       </c>
-      <c r="I7" s="157"/>
+      <c r="I7" s="149"/>
     </row>
     <row r="8" spans="2:9" ht="39.6" customHeight="1">
-      <c r="B8" s="148">
+      <c r="B8" s="150">
         <v>5</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="155" t="s">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153" t="s">
         <v>576</v>
       </c>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="153">
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="156">
         <v>45002</v>
       </c>
-      <c r="I8" s="154"/>
+      <c r="I8" s="157"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="148">
+      <c r="B9" s="150">
         <v>6</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="103" t="s">
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="105" t="s">
         <v>577</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="153">
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="156">
         <v>45003</v>
       </c>
-      <c r="I9" s="154"/>
+      <c r="I9" s="157"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="148">
+      <c r="B10" s="150">
         <v>7</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="105" t="s">
         <v>578</v>
       </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="153">
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="156">
         <v>45005</v>
       </c>
-      <c r="I10" s="154"/>
+      <c r="I10" s="157"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="148">
+      <c r="B11" s="150">
         <v>8</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="103" t="s">
+      <c r="C11" s="154"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="105" t="s">
         <v>583</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="153">
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="156">
         <v>45006</v>
       </c>
-      <c r="I11" s="154"/>
+      <c r="I11" s="157"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="148">
+      <c r="B12" s="150">
         <v>9</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="105" t="s">
         <v>584</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="153">
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="156">
         <v>45006</v>
       </c>
-      <c r="I12" s="154"/>
+      <c r="I12" s="157"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="148">
+      <c r="B13" s="150">
         <v>10</v>
       </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="153">
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="156">
         <v>45006</v>
       </c>
-      <c r="I13" s="154"/>
+      <c r="I13" s="157"/>
     </row>
     <row r="14" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B14" s="148">
+      <c r="B14" s="150">
         <v>11</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="155" t="s">
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="153" t="s">
         <v>587</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="153">
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="156">
         <v>45007</v>
       </c>
-      <c r="I14" s="154"/>
+      <c r="I14" s="157"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="148"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
+      <c r="B15" s="150">
+        <v>12</v>
+      </c>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="105" t="s">
+        <v>597</v>
+      </c>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="156">
+        <v>45007</v>
+      </c>
+      <c r="I15" s="157"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="148"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="148"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="107"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B18" s="148"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B19" s="148"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="102"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B20" s="148"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B21" s="148"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B23" s="148"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B24" s="148"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B25" s="148"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B26" s="148"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B27" s="148"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="102"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B32" s="148"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="141"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="123"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="132"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="132"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="134"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="136"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="127"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20706,54 +20736,38 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -20770,38 +20784,54 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21063,15 +21093,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="162"/>
@@ -22390,15 +22420,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162" t="s">
@@ -23769,15 +23799,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="162" t="s">
@@ -25078,15 +25108,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -26374,15 +26404,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="162" t="s">
@@ -27699,15 +27729,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -28730,7 +28760,7 @@
   <dimension ref="B1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -28944,11 +28974,21 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="66"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>602</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="48"/>
     </row>
@@ -28999,15 +29039,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="162"/>
@@ -30325,15 +30365,15 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="162"/>
@@ -31482,15 +31522,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="129"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="162"/>
@@ -32702,15 +32742,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="162"/>
@@ -33753,11 +33793,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="158" t="s">
         <v>532</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34182,15 +34222,15 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="162" t="s">
@@ -34254,11 +34294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="158" t="s">
         <v>519</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34458,15 +34498,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34524,11 +34564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="158" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34746,15 +34786,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34815,11 +34855,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="158" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -35063,15 +35103,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -44449,12 +44489,12 @@
       <c r="B18" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="162" t="s">

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -4312,10 +4312,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4324,20 +4327,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4350,21 +4392,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4411,53 +4438,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4467,9 +4461,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4483,17 +4474,26 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4782,339 +4782,339 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="117"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="141"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="140" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="142">
+      <c r="G4" s="118">
         <v>44982</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="117"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="140" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="117"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="116" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="116" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="117"/>
+      <c r="I7" s="116"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113" t="s">
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127" t="s">
         <v>548</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="124" t="s">
         <v>547</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="119" t="s">
         <v>509</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="105" t="s">
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="119" t="s">
         <v>510</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="105" t="s">
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="103" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105" t="s">
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105" t="s">
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105" t="s">
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105" t="s">
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105" t="s">
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="119" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="119" t="s">
         <v>471</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105" t="s">
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105" t="s">
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="119" t="s">
         <v>460</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="119" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105" t="s">
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5122,241 +5122,241 @@
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105" t="s">
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="119" t="s">
         <v>383</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105" t="s">
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="F28" s="103"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="107"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105" t="s">
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105" t="s">
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="119" t="s">
         <v>404</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105" t="s">
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="119" t="s">
         <v>405</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="105" t="s">
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="107"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="119" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="105" t="s">
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="107"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="102"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="119" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="105" t="s">
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="107"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="102"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="107"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="102"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="107"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="102"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="141"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="129"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="121"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="123"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="124"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="123"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="124"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="123"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="124"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="123"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="132"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="124"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="123"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="132"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="124"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="123"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="132"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="136"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6330,15 +6330,77 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6363,77 +6425,15 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6696,15 +6696,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -8099,12 +8099,12 @@
       <c r="B22" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="117"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="162" t="s">
@@ -9402,15 +9402,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -10889,15 +10889,15 @@
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -12106,15 +12106,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -13315,15 +13315,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14522,15 +14522,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -15732,15 +15732,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -16928,15 +16928,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -18239,15 +18239,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="162" t="s">
@@ -19259,8 +19259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19278,491 +19278,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="147" t="s">
         <v>562</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="117" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="116" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="116" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123" t="s">
         <v>564</v>
       </c>
-      <c r="I3" s="117"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="144">
+      <c r="B4" s="158">
         <v>1</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161" t="s">
         <v>565</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="148">
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="156">
         <v>44999</v>
       </c>
-      <c r="I4" s="149"/>
+      <c r="I4" s="157"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="144">
+      <c r="B5" s="158">
         <v>2</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="147" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="148">
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="156">
         <v>44999</v>
       </c>
-      <c r="I5" s="149"/>
+      <c r="I5" s="157"/>
     </row>
     <row r="6" spans="2:9" ht="44.45" customHeight="1">
-      <c r="B6" s="150">
+      <c r="B6" s="148">
         <v>3</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="153" t="s">
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="155" t="s">
         <v>569</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="148">
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="156">
         <v>45001</v>
       </c>
-      <c r="I6" s="149"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="2:9" ht="69" customHeight="1">
-      <c r="B7" s="150">
+      <c r="B7" s="148">
         <v>4</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="153" t="s">
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="155" t="s">
         <v>575</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="148">
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="156">
         <v>45001</v>
       </c>
-      <c r="I7" s="149"/>
+      <c r="I7" s="157"/>
     </row>
     <row r="8" spans="2:9" ht="39.6" customHeight="1">
-      <c r="B8" s="150">
+      <c r="B8" s="148">
         <v>5</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="155" t="s">
         <v>576</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="156">
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="153">
         <v>45002</v>
       </c>
-      <c r="I8" s="157"/>
+      <c r="I8" s="154"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="150">
+      <c r="B9" s="148">
         <v>6</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="105" t="s">
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="103" t="s">
         <v>577</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="156">
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="153">
         <v>45003</v>
       </c>
-      <c r="I9" s="157"/>
+      <c r="I9" s="154"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="150">
+      <c r="B10" s="148">
         <v>7</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="156">
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="153">
         <v>45005</v>
       </c>
-      <c r="I10" s="157"/>
+      <c r="I10" s="154"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="150">
+      <c r="B11" s="148">
         <v>8</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="156">
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="153">
         <v>45006</v>
       </c>
-      <c r="I11" s="157"/>
+      <c r="I11" s="154"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="150">
+      <c r="B12" s="148">
         <v>9</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="105" t="s">
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="103" t="s">
         <v>584</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="156">
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="153">
         <v>45006</v>
       </c>
-      <c r="I12" s="157"/>
+      <c r="I12" s="154"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="150">
+      <c r="B13" s="148">
         <v>10</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="105" t="s">
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="103" t="s">
         <v>586</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="156">
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="153">
         <v>45006</v>
       </c>
-      <c r="I13" s="157"/>
+      <c r="I13" s="154"/>
     </row>
     <row r="14" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B14" s="150">
+      <c r="B14" s="148">
         <v>11</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="153" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="155" t="s">
         <v>587</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="156">
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="153">
         <v>45007</v>
       </c>
-      <c r="I14" s="157"/>
+      <c r="I14" s="154"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="150">
+      <c r="B15" s="148">
         <v>12</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="105" t="s">
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="103" t="s">
         <v>597</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="156">
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="153">
         <v>45007</v>
       </c>
-      <c r="I15" s="157"/>
+      <c r="I15" s="154"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="150"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="150"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B18" s="150"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B19" s="150"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B20" s="150"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B21" s="150"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B23" s="150"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B24" s="150"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B25" s="150"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B26" s="150"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B27" s="150"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="107"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="107"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="120"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="121"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="123"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="124"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="123"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="124"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="123"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="132"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="124"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="123"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="124"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="123"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="124"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="123"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="125"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="136"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20736,11 +20736,81 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
@@ -20757,81 +20827,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21093,15 +21093,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="162"/>
@@ -22420,15 +22420,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162" t="s">
@@ -23799,15 +23799,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="162" t="s">
@@ -25108,15 +25108,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -26404,15 +26404,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="162" t="s">
@@ -27729,15 +27729,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="162"/>
@@ -29039,15 +29039,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="162"/>
@@ -30365,15 +30365,15 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="162"/>
@@ -31522,15 +31522,15 @@
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="129"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="162"/>
@@ -32742,15 +32742,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="162"/>
@@ -33778,8 +33778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33793,11 +33793,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="147" t="s">
         <v>532</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34222,15 +34222,15 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="162" t="s">
@@ -34294,11 +34294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="147" t="s">
         <v>519</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34498,15 +34498,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34564,11 +34564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="147" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34786,15 +34786,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34855,11 +34855,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="147" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -35103,15 +35103,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -44489,12 +44489,12 @@
       <c r="B18" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="117"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="162" t="s">

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\LeMo\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CF03E-5E18-4B53-9FD5-5C3729B58288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4395" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="1296" windowWidth="21600" windowHeight="11328" tabRatio="996" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -39,10 +40,10 @@
     <sheet name="여행일기 게시글" sheetId="35" r:id="rId25"/>
     <sheet name="여행일기 댓글" sheetId="37" r:id="rId26"/>
     <sheet name="여행장소" sheetId="45" r:id="rId27"/>
-    <sheet name="좋아요" sheetId="36" r:id="rId28"/>
-    <sheet name="나의 찜" sheetId="38" r:id="rId29"/>
+    <sheet name="나의 찜" sheetId="38" r:id="rId28"/>
+    <sheet name="좋아요" sheetId="36" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="610">
   <si>
     <t>작업일자</t>
   </si>
@@ -3000,10 +3001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.lemo_diary_comment(여행일기 댓글) &gt; com_state 컬럼 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3021,13 +3018,45 @@
   </si>
   <si>
     <t>NULL, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_product_accommodation(숙소) &gt; acc_rdate 컬럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemo_diary_comment(여행일기 댓글) &gt; com_state 컬럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL, NOW()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass_udate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 3개월에 한번씩 변경 권장 안내하기위한 용도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4008,7 +4037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4307,18 +4336,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4327,59 +4347,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4392,6 +4373,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4438,20 +4434,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4461,6 +4490,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4474,26 +4506,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4545,6 +4568,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4760,361 +4786,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P1012"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="5"/>
+    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="116"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="140">
         <v>44982</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="116"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123" t="s">
+      <c r="F7" s="139"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
         <v>548</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="108" t="s">
         <v>547</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="100" t="s">
         <v>509</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="100" t="s">
         <v>510</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="103" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="102"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="102"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="100" t="s">
         <v>471</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="100" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
       <c r="B26" s="82" t="s">
@@ -5125,238 +5151,238 @@
       <c r="E26" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="100" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="100" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="104"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="100" t="s">
         <v>404</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="105"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="102"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="100" t="s">
         <v>405</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
       <c r="E32" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
       <c r="E33" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
     </row>
     <row r="34" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="F34" s="120"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="103"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="107"/>
       <c r="E36" s="103"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="102"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B37" s="142"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="141"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:16" ht="6" customHeight="1"/>
     <row r="39" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="129"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="132"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="132"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="132"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="132"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="136"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
       <c r="B47" s="5" t="s">
@@ -6330,53 +6356,39 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I46"/>
@@ -6401,39 +6413,53 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6442,34 +6468,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -6696,24 +6722,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -7723,34 +7749,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>566</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -8096,81 +8122,81 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="115"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="164"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="164"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="162"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="167" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="167" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="171"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169"/>
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="167" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="178"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="176"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="30" spans="2:8" ht="16.5" customHeight="1"/>
@@ -9164,34 +9190,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -9402,24 +9428,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -10429,34 +10455,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:H989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -10649,7 +10675,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.15" customHeight="1">
+    <row r="13" spans="2:8" ht="22.2" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>230</v>
       </c>
@@ -10879,25 +10905,33 @@
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="E26" s="23"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="24" t="s">
+        <v>606</v>
+      </c>
       <c r="G26" s="36"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" ht="21.75" customHeight="1">
       <c r="B29" s="26" t="s">
@@ -10922,15 +10956,15 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1">
       <c r="B34" s="26"/>
@@ -11912,34 +11946,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -12106,15 +12140,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -12133,13 +12167,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="171"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -13121,34 +13155,34 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -13315,15 +13349,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -13342,13 +13376,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="171"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -14330,34 +14364,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -14484,7 +14518,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.15" customHeight="1">
+    <row r="13" spans="2:8" ht="22.2" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="56"/>
       <c r="D13" s="13"/>
@@ -14522,15 +14556,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -14549,13 +14583,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="171"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -15537,34 +15571,34 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -15732,15 +15766,15 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -15759,13 +15793,13 @@
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="169"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -16747,34 +16781,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -16928,15 +16962,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="129"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="26"/>
@@ -16955,13 +16989,13 @@
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="171"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -17943,34 +17977,34 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:H981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -18239,26 +18273,26 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="164"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="44"/>
@@ -19256,119 +19290,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="5"/>
+    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="156" t="s">
         <v>562</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="116" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="114" t="s">
         <v>564</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="42.6" customHeight="1">
-      <c r="B4" s="158">
+      <c r="B4" s="142">
         <v>1</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145" t="s">
         <v>565</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="156">
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="146">
         <v>44999</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B5" s="158">
+      <c r="B5" s="142">
         <v>2</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145" t="s">
         <v>567</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="156">
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="146">
         <v>44999</v>
       </c>
-      <c r="I5" s="157"/>
-    </row>
-    <row r="6" spans="2:9" ht="44.45" customHeight="1">
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="2:9" ht="44.4" customHeight="1">
       <c r="B6" s="148">
         <v>3</v>
       </c>
       <c r="C6" s="149"/>
       <c r="D6" s="150"/>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="151" t="s">
         <v>569</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="156">
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="146">
         <v>45001</v>
       </c>
-      <c r="I6" s="157"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="2:9" ht="69" customHeight="1">
       <c r="B7" s="148">
         <v>4</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="155" t="s">
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151" t="s">
         <v>575</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="156">
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="146">
         <v>45001</v>
       </c>
-      <c r="I7" s="157"/>
+      <c r="I7" s="147"/>
     </row>
     <row r="8" spans="2:9" ht="39.6" customHeight="1">
       <c r="B8" s="148">
@@ -19376,15 +19410,15 @@
       </c>
       <c r="C8" s="149"/>
       <c r="D8" s="150"/>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="151" t="s">
         <v>576</v>
       </c>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="153">
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="154">
         <v>45002</v>
       </c>
-      <c r="I8" s="154"/>
+      <c r="I8" s="155"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
       <c r="B9" s="148">
@@ -19395,374 +19429,380 @@
       <c r="E9" s="103" t="s">
         <v>577</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="153">
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="154">
         <v>45003</v>
       </c>
-      <c r="I9" s="154"/>
+      <c r="I9" s="155"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
       <c r="B10" s="148">
         <v>7</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="153">
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="154">
         <v>45005</v>
       </c>
-      <c r="I10" s="154"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
       <c r="B11" s="148">
         <v>8</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="153">
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="154">
         <v>45006</v>
       </c>
-      <c r="I11" s="154"/>
+      <c r="I11" s="155"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
       <c r="B12" s="148">
         <v>9</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="103" t="s">
         <v>584</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="153">
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="154">
         <v>45006</v>
       </c>
-      <c r="I12" s="154"/>
+      <c r="I12" s="155"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
       <c r="B13" s="148">
         <v>10</v>
       </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="103" t="s">
         <v>586</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="153">
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="154">
         <v>45006</v>
       </c>
-      <c r="I13" s="154"/>
+      <c r="I13" s="155"/>
     </row>
     <row r="14" spans="2:9" ht="38.25" customHeight="1">
       <c r="B14" s="148">
         <v>11</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="155" t="s">
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="151" t="s">
         <v>587</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="153">
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="154">
         <v>45007</v>
       </c>
-      <c r="I14" s="154"/>
+      <c r="I14" s="155"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
       <c r="B15" s="148">
         <v>12</v>
       </c>
-      <c r="C15" s="151"/>
-      <c r="D15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="103" t="s">
-        <v>597</v>
-      </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="153">
+        <v>603</v>
+      </c>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="154">
         <v>45007</v>
       </c>
-      <c r="I15" s="154"/>
+      <c r="I15" s="155"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="148"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="B16" s="148">
+        <v>13</v>
+      </c>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="103" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="154">
+        <v>45008</v>
+      </c>
+      <c r="I16" s="177"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
       <c r="B17" s="148"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
       <c r="B18" s="148"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:16" ht="21.75" customHeight="1">
       <c r="B19" s="148"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="102"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" customHeight="1">
       <c r="B20" s="148"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:16" ht="21.75" customHeight="1">
       <c r="B21" s="148"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:16" ht="21.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="94"/>
       <c r="D22" s="56"/>
       <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:16" ht="21.75" customHeight="1">
       <c r="B23" s="148"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" customHeight="1">
       <c r="B24" s="148"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:16" ht="21.75" customHeight="1">
       <c r="B25" s="148"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:16" ht="21.75" customHeight="1">
       <c r="B26" s="148"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:16" ht="21.75" customHeight="1">
       <c r="B27" s="148"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:16" ht="21.75" customHeight="1">
       <c r="B28" s="148"/>
       <c r="C28" s="149"/>
       <c r="D28" s="150"/>
       <c r="E28" s="103"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:16" ht="21.75" customHeight="1">
       <c r="B29" s="148"/>
       <c r="C29" s="149"/>
       <c r="D29" s="150"/>
       <c r="E29" s="103"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
     </row>
     <row r="30" spans="2:16" ht="21.75" customHeight="1">
       <c r="B30" s="148"/>
       <c r="C30" s="149"/>
       <c r="D30" s="150"/>
       <c r="E30" s="103"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:16" ht="21.75" customHeight="1">
       <c r="B31" s="148"/>
       <c r="C31" s="149"/>
       <c r="D31" s="150"/>
       <c r="E31" s="103"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="102"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:16" ht="21.75" customHeight="1">
       <c r="B32" s="148"/>
       <c r="C32" s="149"/>
       <c r="D32" s="150"/>
       <c r="E32" s="103"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="141"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
     </row>
     <row r="34" spans="2:9" ht="6" customHeight="1"/>
     <row r="35" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="121"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="132"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="132"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B42" s="134"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="136"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="125"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1">
       <c r="B43" s="5" t="s">
@@ -20736,54 +20776,38 @@
     <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -20800,38 +20824,54 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I42"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20840,34 +20880,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -21093,24 +21133,24 @@
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="17" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="164"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="44"/>
@@ -22108,35 +22148,35 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -22420,35 +22460,35 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="160" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="169"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="169"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -23455,35 +23495,35 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -23799,26 +23839,26 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="160" t="s">
         <v>551</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="164"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -24828,35 +24868,35 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -24941,11 +24981,11 @@
       </c>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="2:8" s="99" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="66" t="s">
         <v>596</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -25108,24 +25148,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -26135,35 +26175,35 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -26404,26 +26444,26 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="164"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="26"/>
@@ -27433,35 +27473,35 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -27729,24 +27769,24 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -28756,35 +28796,35 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="B1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -28975,19 +29015,19 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="D13" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="E13" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="45" t="s">
         <v>601</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>602</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="48"/>
@@ -29039,24 +29079,24 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="164"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -30066,35 +30106,35 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -30365,24 +30405,24 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="164"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -31392,1192 +31432,35 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H990"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-    </row>
-    <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="3" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B4" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B5" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="48"/>
-    </row>
-    <row r="6" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B7" s="61"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B8" s="55"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="11" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B11" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="129"/>
-    </row>
-    <row r="12" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="164"/>
-    </row>
-    <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -32742,33 +31625,33 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="164"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="169"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -33774,30 +32657,1187 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="B1:H990"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B1" s="166" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="3" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B4" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B5" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B6" s="61"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B7" s="61"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B8" s="55"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="11" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B11" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
+    </row>
+    <row r="12" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B12" s="160"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162"/>
+    </row>
+    <row r="13" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="156" t="s">
         <v>532</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34222,26 +34262,26 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="160" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="164"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
     <row r="30" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B30" s="55"/>
@@ -34276,29 +34316,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="156" t="s">
         <v>519</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34368,11 +34408,19 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>608</v>
+      </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="78" t="s">
+        <v>609</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="G6" s="34"/>
       <c r="H6" s="14"/>
     </row>
@@ -34498,15 +34546,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34546,29 +34594,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="156" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -34786,15 +34834,15 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -34834,32 +34882,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H985"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="2" max="3" width="14.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="156" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -35103,15 +35151,15 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -41836,32 +41884,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -42008,33 +42056,33 @@
       <c r="B12" s="76"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="167"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="171"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="169"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="26"/>
@@ -43040,32 +43088,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:H991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -43200,37 +43248,37 @@
       <c r="B12" s="76"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="167"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="167" t="s">
         <v>501</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="171"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="169"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1">
       <c r="B16" s="26"/>
@@ -44236,33 +44284,33 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="4" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -44486,44 +44534,44 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="173" t="s">
+      <c r="B20" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="174"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="169"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="175"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="173"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>

--- a/DB/LeMo 테이블 명세서 v1.0.xlsx
+++ b/DB/LeMo 테이블 명세서 v1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\LeMo\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\LeMo\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CF03E-5E18-4B53-9FD5-5C3729B58288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1296" windowWidth="21600" windowHeight="11328" tabRatio="996" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1290" windowWidth="21600" windowHeight="11325" tabRatio="996" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <sheet name="나의 찜" sheetId="38" r:id="rId28"/>
     <sheet name="좋아요" sheetId="36" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="611">
   <si>
     <t>작업일자</t>
   </si>
@@ -3052,11 +3051,15 @@
     <t>비밀번호 3개월에 한번씩 변경 권장 안내하기위한 용도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>lemo__product_coupon(상품 쿠폰) &gt; acc_id null 허용으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4506,6 +4509,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4568,9 +4574,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4786,24 +4789,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1012"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="5"/>
+    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
@@ -6468,34 +6471,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -6733,13 +6736,13 @@
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="163"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -7749,34 +7752,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>566</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -7857,7 +7860,7 @@
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>58</v>
@@ -8122,7 +8125,7 @@
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="171" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="139"/>
@@ -8133,70 +8136,70 @@
       <c r="H22" s="115"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="163"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="163"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170"/>
     </row>
     <row r="26" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="168" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="170"/>
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="170"/>
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="177"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="30" spans="2:8" ht="16.5" customHeight="1"/>
@@ -9190,34 +9193,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="40"/>
       <c r="G1" s="47"/>
       <c r="H1" s="40"/>
@@ -9439,13 +9442,13 @@
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="163"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -10455,34 +10458,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -10675,7 +10678,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.2" customHeight="1">
+    <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>230</v>
       </c>
@@ -10956,15 +10959,15 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="168" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="170"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1">
       <c r="B34" s="26"/>
@@ -11946,34 +11949,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -12167,13 +12170,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="170"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -13155,34 +13158,34 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -13376,13 +13379,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="170"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -14364,34 +14367,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -14518,7 +14521,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="2:8" ht="22.2" customHeight="1">
+    <row r="13" spans="2:8" ht="22.15" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="56"/>
       <c r="D13" s="13"/>
@@ -14583,13 +14586,13 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="170"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="26"/>
@@ -15571,34 +15574,34 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -15793,13 +15796,13 @@
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="169"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="170"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -16781,34 +16784,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -16989,13 +16992,13 @@
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="167"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="170"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="26"/>
@@ -17977,34 +17980,34 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -18284,15 +18287,15 @@
       <c r="H20" s="118"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="161" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="163"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="44"/>
@@ -19290,38 +19293,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P1008"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="27" width="7.5546875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="5"/>
+    <col min="10" max="27" width="7.5703125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="157" t="s">
         <v>562</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
@@ -19372,7 +19375,7 @@
       </c>
       <c r="I5" s="147"/>
     </row>
-    <row r="6" spans="2:9" ht="44.4" customHeight="1">
+    <row r="6" spans="2:9" ht="44.45" customHeight="1">
       <c r="B6" s="148">
         <v>3</v>
       </c>
@@ -19546,17 +19549,23 @@
       <c r="H16" s="154">
         <v>45008</v>
       </c>
-      <c r="I16" s="177"/>
+      <c r="I16" s="156"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1">
-      <c r="B17" s="148"/>
+      <c r="B17" s="148">
+        <v>14</v>
+      </c>
       <c r="C17" s="152"/>
       <c r="D17" s="153"/>
-      <c r="E17" s="103"/>
+      <c r="E17" s="103" t="s">
+        <v>610</v>
+      </c>
       <c r="F17" s="101"/>
       <c r="G17" s="102"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="H17" s="154">
+        <v>45009</v>
+      </c>
+      <c r="I17" s="156"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1">
       <c r="B18" s="148"/>
@@ -19712,9 +19721,9 @@
       <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="126"/>
       <c r="F33" s="127"/>
       <c r="G33" s="128"/>
@@ -20880,34 +20889,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -21144,13 +21153,13 @@
       <c r="H17" s="118"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="160"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="163"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="44"/>
@@ -22148,35 +22157,35 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -22471,24 +22480,24 @@
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="163"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="169"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="170"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -23495,35 +23504,35 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -23850,15 +23859,15 @@
       <c r="H21" s="118"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="161" t="s">
         <v>551</v>
       </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="163"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
       <c r="B23" s="26"/>
@@ -24868,35 +24877,35 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -25159,13 +25168,13 @@
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="163"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="26"/>
@@ -26175,35 +26184,35 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="5"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="167" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -26455,15 +26464,15 @@
       <c r="H18" s="118"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="161" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="26"/>
@@ -27473,35 +27482,35 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9" max="25" width="7.5546875" style="5" customWidth="1"/>
-    <col min="26